--- a/Analyse/testdaten.xlsx
+++ b/Analyse/testdaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD6CF9F-EEFC-4DE8-BBBB-E362DCB39139}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5B227-868A-47BE-AA26-09479501C6F8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>geraet</t>
   </si>
@@ -28,9 +28,6 @@
     <t>raum</t>
   </si>
   <si>
-    <t>stunden</t>
-  </si>
-  <si>
     <t>kategorie</t>
   </si>
   <si>
@@ -41,6 +38,21 @@
   </si>
   <si>
     <t>gang1</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>arzt</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>ende</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -358,15 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,245 +389,393 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>11.5</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>10.5</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse/testdaten.xlsx
+++ b/Analyse/testdaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5B227-868A-47BE-AA26-09479501C6F8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E566C-5492-42B2-A5F4-E7F20793CFA4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>geraet</t>
   </si>
@@ -37,9 +37,6 @@
     <t>ekg</t>
   </si>
   <si>
-    <t>gang1</t>
-  </si>
-  <si>
     <t>patient</t>
   </si>
   <si>
@@ -53,6 +50,18 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>A701</t>
+  </si>
+  <si>
+    <t>A702</t>
+  </si>
+  <si>
+    <t>A703</t>
+  </si>
+  <si>
+    <t>A721</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -389,21 +398,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -420,10 +429,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -440,10 +449,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -460,10 +469,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -480,10 +489,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -500,10 +509,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -520,10 +529,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -540,10 +549,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -560,10 +569,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -580,10 +589,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -602,8 +611,8 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -620,10 +629,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -642,8 +651,8 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -662,8 +671,8 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -680,10 +689,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -700,10 +709,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -720,10 +729,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -740,13 +749,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -760,13 +769,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>10.5</v>

--- a/Analyse/testdaten.xlsx
+++ b/Analyse/testdaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E566C-5492-42B2-A5F4-E7F20793CFA4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC865F-3AC5-48EE-99C4-ED82115EFD4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
     <t>geraet</t>
   </si>
@@ -62,6 +62,102 @@
   </si>
   <si>
     <t>A721</t>
+  </si>
+  <si>
+    <t>A821</t>
+  </si>
+  <si>
+    <t>A727.1</t>
+  </si>
+  <si>
+    <t>A727.2</t>
+  </si>
+  <si>
+    <t>A727.3</t>
+  </si>
+  <si>
+    <t>A727.4</t>
+  </si>
+  <si>
+    <t>A727.5</t>
+  </si>
+  <si>
+    <t>A727.6</t>
+  </si>
+  <si>
+    <t>A727.7</t>
+  </si>
+  <si>
+    <t>A728.1</t>
+  </si>
+  <si>
+    <t>A728.2</t>
+  </si>
+  <si>
+    <t>A728.3</t>
+  </si>
+  <si>
+    <t>A728.4</t>
+  </si>
+  <si>
+    <t>A728.5</t>
+  </si>
+  <si>
+    <t>A728.6</t>
+  </si>
+  <si>
+    <t>A827.1</t>
+  </si>
+  <si>
+    <t>A827.2</t>
+  </si>
+  <si>
+    <t>A827.3</t>
+  </si>
+  <si>
+    <t>A827.4</t>
+  </si>
+  <si>
+    <t>A827.5</t>
+  </si>
+  <si>
+    <t>A827.6</t>
+  </si>
+  <si>
+    <t>A827.7</t>
+  </si>
+  <si>
+    <t>A828.1</t>
+  </si>
+  <si>
+    <t>A828.2</t>
+  </si>
+  <si>
+    <t>A828.3</t>
+  </si>
+  <si>
+    <t>A828.4</t>
+  </si>
+  <si>
+    <t>A828.5</t>
+  </si>
+  <si>
+    <t>A828.6</t>
+  </si>
+  <si>
+    <t>schwester</t>
+  </si>
+  <si>
+    <t>N101</t>
+  </si>
+  <si>
+    <t>N201</t>
+  </si>
+  <si>
+    <t>N301</t>
+  </si>
+  <si>
+    <t>N401</t>
   </si>
 </sst>
 </file>
@@ -379,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -787,6 +883,1326 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>3.15</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>4.45</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>15.2</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>16.3</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>16.5</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>14.1</v>
+      </c>
+      <c r="E33">
+        <v>15.2</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>15.2</v>
+      </c>
+      <c r="E34">
+        <v>16.3</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>16.5</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>11.3</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>14.4</v>
+      </c>
+      <c r="E37">
+        <v>15.2</v>
+      </c>
+      <c r="F37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>15.3</v>
+      </c>
+      <c r="E38">
+        <v>17.7</v>
+      </c>
+      <c r="F38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>16.5</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>14.1</v>
+      </c>
+      <c r="E41">
+        <v>15.2</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>15.2</v>
+      </c>
+      <c r="E42">
+        <v>17.7</v>
+      </c>
+      <c r="F42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>16.5</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>13.4</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>13.4</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>15.5</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>10.1</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2.1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>3.1</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>6.1</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>7.1</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>8.1</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>9.1</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>10.1</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>11.1</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>12.1</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>13.1</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>14.1</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>15.1</v>
+      </c>
+      <c r="F68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <v>21.1</v>
+      </c>
+      <c r="F74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>22</v>
+      </c>
+      <c r="E75">
+        <v>22.1</v>
+      </c>
+      <c r="F75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>23.1</v>
+      </c>
+      <c r="F76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77">
+        <v>24.1</v>
+      </c>
+      <c r="F77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>25.1</v>
+      </c>
+      <c r="F78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79">
+        <v>26.1</v>
+      </c>
+      <c r="F79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E81">
+        <v>10.7</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>10.7</v>
+      </c>
+      <c r="E82">
+        <v>11.6</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>11.6</v>
+      </c>
+      <c r="E83">
+        <v>12.5</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>10.1</v>
+      </c>
+      <c r="E84">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>10.9</v>
+      </c>
+      <c r="E85">
+        <v>11.6</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>11.8</v>
+      </c>
+      <c r="E86">
+        <v>12.5</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse/testdaten.xlsx
+++ b/Analyse/testdaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC865F-3AC5-48EE-99C4-ED82115EFD4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BEE6ED-B7C5-46FD-8A60-625EE1C06C45}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="47">
   <si>
     <t>geraet</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>N401</t>
+  </si>
+  <si>
+    <t>ct</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2203,7 +2206,5268 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>10.1</v>
+      </c>
+      <c r="E87">
+        <v>10.5</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>10.5</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+      <c r="E89">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>10.8</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>10.8</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>12.2</v>
+      </c>
+      <c r="E93">
+        <v>13.9</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>13.9</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>14.5</v>
+      </c>
+      <c r="E95">
+        <v>14.8</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>14.8</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>16.5</v>
+      </c>
+      <c r="E97">
+        <v>18.2</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>18.2</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>5.8</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>37</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>5.8</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>4.5</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E103">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>11</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>8.5</v>
+      </c>
+      <c r="E105">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>58</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>61</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>16.3</v>
+      </c>
+      <c r="E109">
+        <v>19</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>67</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>13.4</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>73</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>13</v>
+      </c>
+      <c r="E112">
+        <v>13.4</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>76</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>79</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>14</v>
+      </c>
+      <c r="E114">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>82</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>13.8</v>
+      </c>
+      <c r="E115">
+        <v>14.5</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>85</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>14.5</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>88</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>11.2</v>
+      </c>
+      <c r="F117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>91</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>11.2</v>
+      </c>
+      <c r="F118">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>94</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>10.5</v>
+      </c>
+      <c r="E119">
+        <v>11.8</v>
+      </c>
+      <c r="F119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>97</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>11.8</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>100</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>12.2</v>
+      </c>
+      <c r="E121">
+        <v>12.7</v>
+      </c>
+      <c r="F121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>103</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>12</v>
+      </c>
+      <c r="E122">
+        <v>12.7</v>
+      </c>
+      <c r="F122">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>106</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>18.3</v>
+      </c>
+      <c r="E123">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F123">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>112</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E125">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>115</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F126">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>13.2</v>
+      </c>
+      <c r="E127">
+        <v>15</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>121</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>15</v>
+      </c>
+      <c r="F128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>14.1</v>
+      </c>
+      <c r="E129">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>10.1</v>
+      </c>
+      <c r="E131">
+        <v>11.4</v>
+      </c>
+      <c r="F131">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>11.4</v>
+      </c>
+      <c r="F132">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>14.5</v>
+      </c>
+      <c r="E133">
+        <v>17.3</v>
+      </c>
+      <c r="F133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>14</v>
+      </c>
+      <c r="E134">
+        <v>17.3</v>
+      </c>
+      <c r="F134">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>14.2</v>
+      </c>
+      <c r="E135">
+        <v>15.1</v>
+      </c>
+      <c r="F135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>145</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>15.1</v>
+      </c>
+      <c r="F136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>148</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>16.3</v>
+      </c>
+      <c r="E137">
+        <v>17.5</v>
+      </c>
+      <c r="F137">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>17.5</v>
+      </c>
+      <c r="F138">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>154</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>11.4</v>
+      </c>
+      <c r="E139">
+        <v>11.8</v>
+      </c>
+      <c r="F139">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>157</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>11</v>
+      </c>
+      <c r="E140">
+        <v>11.8</v>
+      </c>
+      <c r="F140">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>7.6</v>
+      </c>
+      <c r="E141">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F141">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F142">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>166</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>13</v>
+      </c>
+      <c r="F143">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>169</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>13</v>
+      </c>
+      <c r="F144">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>172</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>175</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>14</v>
+      </c>
+      <c r="E146">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>178</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>181</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>1.5</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>2.5</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E152">
+        <v>2.5</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>6.5</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>6.5</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>5.9</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>5.5</v>
+      </c>
+      <c r="E156">
+        <v>5.9</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>25</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>31</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>13</v>
+      </c>
+      <c r="E159">
+        <v>15</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>34</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>13.5</v>
+      </c>
+      <c r="E160">
+        <v>15</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>37</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>14</v>
+      </c>
+      <c r="F161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>40</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>11.6</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
+      </c>
+      <c r="F162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
+        <v>43</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>17</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
+        <v>46</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>13.5</v>
+      </c>
+      <c r="E164">
+        <v>17</v>
+      </c>
+      <c r="F164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
+        <v>49</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>17</v>
+      </c>
+      <c r="E165">
+        <v>19</v>
+      </c>
+      <c r="F165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
+        <v>52</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E166">
+        <v>19</v>
+      </c>
+      <c r="F166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>55</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>16</v>
+      </c>
+      <c r="E167">
+        <v>16.5</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>58</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>16</v>
+      </c>
+      <c r="E168">
+        <v>16.5</v>
+      </c>
+      <c r="F168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>61</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>14</v>
+      </c>
+      <c r="E169">
+        <v>17</v>
+      </c>
+      <c r="F169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>64</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>14.6</v>
+      </c>
+      <c r="E170">
+        <v>17</v>
+      </c>
+      <c r="F170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>67</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>13</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
+      </c>
+      <c r="F171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>70</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172">
+        <v>14</v>
+      </c>
+      <c r="F172">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>73</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>15</v>
+      </c>
+      <c r="F173">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>76</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>12.8</v>
+      </c>
+      <c r="E174">
+        <v>15</v>
+      </c>
+      <c r="F174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>79</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175">
+        <v>13</v>
+      </c>
+      <c r="F175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>82</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>11</v>
+      </c>
+      <c r="E176">
+        <v>13</v>
+      </c>
+      <c r="F176">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>85</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>11</v>
+      </c>
+      <c r="E177">
+        <v>13</v>
+      </c>
+      <c r="F177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>88</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>11.2</v>
+      </c>
+      <c r="E178">
+        <v>13</v>
+      </c>
+      <c r="F178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>91</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>21</v>
+      </c>
+      <c r="F179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>94</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>21</v>
+      </c>
+      <c r="F180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>97</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>13</v>
+      </c>
+      <c r="E181">
+        <v>16</v>
+      </c>
+      <c r="F181">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>100</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>16</v>
+      </c>
+      <c r="F182">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>103</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>12</v>
+      </c>
+      <c r="E183">
+        <v>13</v>
+      </c>
+      <c r="F183">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>106</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>12.4</v>
+      </c>
+      <c r="E184">
+        <v>13</v>
+      </c>
+      <c r="F184">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185">
+        <v>109</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185">
+        <v>17</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
+        <v>112</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>15.5</v>
+      </c>
+      <c r="E186">
+        <v>17</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187">
+        <v>115</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>11.5</v>
+      </c>
+      <c r="F187">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188">
+        <v>118</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>10.5</v>
+      </c>
+      <c r="E188">
+        <v>11.5</v>
+      </c>
+      <c r="F188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
+        <v>121</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189">
+        <v>15.8</v>
+      </c>
+      <c r="E189">
+        <v>17</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
+        <v>124</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>14</v>
+      </c>
+      <c r="E190">
+        <v>17</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
+        <v>127</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>9</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
+        <v>130</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>7.5</v>
+      </c>
+      <c r="E192">
+        <v>9</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
+        <v>133</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>13</v>
+      </c>
+      <c r="E193">
+        <v>16</v>
+      </c>
+      <c r="F193">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
+        <v>136</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>14</v>
+      </c>
+      <c r="E194">
+        <v>16</v>
+      </c>
+      <c r="F194">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
+        <v>139</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <v>11</v>
+      </c>
+      <c r="F195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196">
+        <v>142</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>10.7</v>
+      </c>
+      <c r="E196">
+        <v>11</v>
+      </c>
+      <c r="F196">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197">
+        <v>145</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>14</v>
+      </c>
+      <c r="E197">
+        <v>16.5</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198">
+        <v>148</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>14.5</v>
+      </c>
+      <c r="E198">
+        <v>16.5</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199">
+        <v>151</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="E199">
+        <v>12</v>
+      </c>
+      <c r="F199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200">
+        <v>154</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200">
+        <v>9.5</v>
+      </c>
+      <c r="E200">
+        <v>12</v>
+      </c>
+      <c r="F200">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201">
+        <v>157</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>7</v>
+      </c>
+      <c r="F201">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202">
+        <v>160</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202">
+        <v>6.8</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203">
+        <v>163</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>14</v>
+      </c>
+      <c r="F203">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204">
+        <v>166</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>12.2</v>
+      </c>
+      <c r="E204">
+        <v>14</v>
+      </c>
+      <c r="F204">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205">
+        <v>169</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>18</v>
+      </c>
+      <c r="F205">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206">
+        <v>172</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>15</v>
+      </c>
+      <c r="E206">
+        <v>18</v>
+      </c>
+      <c r="F206">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207">
+        <v>175</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208">
+        <v>178</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>2.5</v>
+      </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209">
+        <v>181</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>19.5</v>
+      </c>
+      <c r="F209">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210">
+        <v>168</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>19</v>
+      </c>
+      <c r="E210">
+        <v>19.5</v>
+      </c>
+      <c r="F210">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211">
+        <v>7.2982699673656999</v>
+      </c>
+      <c r="E211">
+        <v>13.9981333570601</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>46</v>
+      </c>
+      <c r="D212">
+        <v>6.5728041686600696</v>
+      </c>
+      <c r="E212">
+        <v>15.361723711598399</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>46</v>
+      </c>
+      <c r="D213">
+        <v>8.4539663262105496</v>
+      </c>
+      <c r="E213">
+        <v>15.964802788402601</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" t="s">
+        <v>46</v>
+      </c>
+      <c r="D214">
+        <v>8.7802282378792498</v>
+      </c>
+      <c r="E214">
+        <v>14.9331062352666</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>46</v>
+      </c>
+      <c r="D215">
+        <v>7.4485200069822097</v>
+      </c>
+      <c r="E215">
+        <v>14.1504504289635</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>46</v>
+      </c>
+      <c r="D216">
+        <v>6.0061057282027797</v>
+      </c>
+      <c r="E216">
+        <v>15.342389678918799</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" t="s">
+        <v>46</v>
+      </c>
+      <c r="D217">
+        <v>7.2305437236099399</v>
+      </c>
+      <c r="E217">
+        <v>14.5613058874189</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218">
+        <v>7.4848278592761197</v>
+      </c>
+      <c r="E218">
+        <v>15.8508068759763</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" t="s">
+        <v>46</v>
+      </c>
+      <c r="D219">
+        <v>7.3136717272626299</v>
+      </c>
+      <c r="E219">
+        <v>14.982358892411501</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>43</v>
+      </c>
+      <c r="C220" t="s">
+        <v>46</v>
+      </c>
+      <c r="D220">
+        <v>9.0092597889550596</v>
+      </c>
+      <c r="E220">
+        <v>15.579640456756801</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>44</v>
+      </c>
+      <c r="C221" t="s">
+        <v>46</v>
+      </c>
+      <c r="D221">
+        <v>6.5671657224328897</v>
+      </c>
+      <c r="E221">
+        <v>14.9759166982326</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
+        <v>45</v>
+      </c>
+      <c r="C222" t="s">
+        <v>46</v>
+      </c>
+      <c r="D222">
+        <v>6.6657276296774599</v>
+      </c>
+      <c r="E222">
+        <v>14.8607461863553</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>42</v>
+      </c>
+      <c r="C223" t="s">
+        <v>46</v>
+      </c>
+      <c r="D223">
+        <v>8.0333412796865495</v>
+      </c>
+      <c r="E223">
+        <v>14.072227538756101</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" t="s">
+        <v>46</v>
+      </c>
+      <c r="D224">
+        <v>5.1910750596806903</v>
+      </c>
+      <c r="E224">
+        <v>14.7736684901014</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>45</v>
+      </c>
+      <c r="C225" t="s">
+        <v>46</v>
+      </c>
+      <c r="D225">
+        <v>5.9991445996219497</v>
+      </c>
+      <c r="E225">
+        <v>15.7507249076922</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>46</v>
+      </c>
+      <c r="D226">
+        <v>7.0464679186307597</v>
+      </c>
+      <c r="E226">
+        <v>16.6322607670627</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227">
+        <v>6.4426189843877903</v>
+      </c>
+      <c r="E227">
+        <v>14.453039645499301</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228">
+        <v>7.2034626744973496</v>
+      </c>
+      <c r="E228">
+        <v>13.0216124200505</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229">
+        <v>8.2933861855548905</v>
+      </c>
+      <c r="E229">
+        <v>13.812695470931899</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>46</v>
+      </c>
+      <c r="D230">
+        <v>5.5632505560467402</v>
+      </c>
+      <c r="E230">
+        <v>15.6751429712702</v>
+      </c>
+      <c r="F230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>46</v>
+      </c>
+      <c r="D231">
+        <v>6.4129052715599304</v>
+      </c>
+      <c r="E231">
+        <v>16.659976661924901</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" t="s">
+        <v>46</v>
+      </c>
+      <c r="D232">
+        <v>6.8659257820016402</v>
+      </c>
+      <c r="E232">
+        <v>15.105164483767201</v>
+      </c>
+      <c r="F232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" t="s">
+        <v>46</v>
+      </c>
+      <c r="D233">
+        <v>8.1315806669051902</v>
+      </c>
+      <c r="E233">
+        <v>15.496364719567399</v>
+      </c>
+      <c r="F233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>46</v>
+      </c>
+      <c r="D234">
+        <v>7.0860620911303904</v>
+      </c>
+      <c r="E234">
+        <v>14.2603161515451</v>
+      </c>
+      <c r="F234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>46</v>
+      </c>
+      <c r="D235">
+        <v>7.0458735403506898</v>
+      </c>
+      <c r="E235">
+        <v>15.5908249272451</v>
+      </c>
+      <c r="F235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" t="s">
+        <v>46</v>
+      </c>
+      <c r="D236">
+        <v>6.0587162937119201</v>
+      </c>
+      <c r="E236">
+        <v>14.6805205553917</v>
+      </c>
+      <c r="F236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
+        <v>46</v>
+      </c>
+      <c r="D237">
+        <v>8.9888561435558998</v>
+      </c>
+      <c r="E237">
+        <v>12.7325486968445</v>
+      </c>
+      <c r="F237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>46</v>
+      </c>
+      <c r="D238">
+        <v>5.3868250481678697</v>
+      </c>
+      <c r="E238">
+        <v>15.217532414014</v>
+      </c>
+      <c r="F238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>46</v>
+      </c>
+      <c r="D239">
+        <v>6.8241112024775603</v>
+      </c>
+      <c r="E239">
+        <v>14.7869390825227</v>
+      </c>
+      <c r="F239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" t="s">
+        <v>46</v>
+      </c>
+      <c r="D240">
+        <v>5.9274320516206496</v>
+      </c>
+      <c r="E240">
+        <v>14.341773913390901</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241">
+        <v>7.6387016961523697</v>
+      </c>
+      <c r="E241">
+        <v>15.6127989049979</v>
+      </c>
+      <c r="F241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" t="s">
+        <v>46</v>
+      </c>
+      <c r="D242">
+        <v>7.5649580125042801</v>
+      </c>
+      <c r="E242">
+        <v>16.804318962050601</v>
+      </c>
+      <c r="F242">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>46</v>
+      </c>
+      <c r="D243">
+        <v>6.3666426449803399</v>
+      </c>
+      <c r="E243">
+        <v>15.3027761967329</v>
+      </c>
+      <c r="F243">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" t="s">
+        <v>46</v>
+      </c>
+      <c r="D244">
+        <v>6.9169981095760003</v>
+      </c>
+      <c r="E244">
+        <v>14.981716097558699</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" t="s">
+        <v>46</v>
+      </c>
+      <c r="D245">
+        <v>7.0673537628755696</v>
+      </c>
+      <c r="E245">
+        <v>14.380211335748999</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246">
+        <v>2</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" t="s">
+        <v>46</v>
+      </c>
+      <c r="D246">
+        <v>6.7663377914742</v>
+      </c>
+      <c r="E246">
+        <v>14.911767965529</v>
+      </c>
+      <c r="F246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>46</v>
+      </c>
+      <c r="D247">
+        <v>5.5600148920957002</v>
+      </c>
+      <c r="E247">
+        <v>14.1980849952977</v>
+      </c>
+      <c r="F247">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" t="s">
+        <v>46</v>
+      </c>
+      <c r="D248">
+        <v>8.2041331519833207</v>
+      </c>
+      <c r="E248">
+        <v>15.742658179365501</v>
+      </c>
+      <c r="F248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" t="s">
+        <v>46</v>
+      </c>
+      <c r="D249">
+        <v>6.6297045887705499</v>
+      </c>
+      <c r="E249">
+        <v>13.587469555676201</v>
+      </c>
+      <c r="F249">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>46</v>
+      </c>
+      <c r="D250">
+        <v>5.4599666748290296</v>
+      </c>
+      <c r="E250">
+        <v>13.9472066728373</v>
+      </c>
+      <c r="F250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" t="s">
+        <v>46</v>
+      </c>
+      <c r="D251">
+        <v>7.0878587011166001</v>
+      </c>
+      <c r="E251">
+        <v>14.5216302032591</v>
+      </c>
+      <c r="F251">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
+        <v>46</v>
+      </c>
+      <c r="D252">
+        <v>7.8463363935991897</v>
+      </c>
+      <c r="E252">
+        <v>12.9999634783131</v>
+      </c>
+      <c r="F252">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" t="s">
+        <v>46</v>
+      </c>
+      <c r="D253">
+        <v>8.0227320073665496</v>
+      </c>
+      <c r="E253">
+        <v>14.548783507148</v>
+      </c>
+      <c r="F253">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s">
+        <v>46</v>
+      </c>
+      <c r="D254">
+        <v>6.7321789752605499</v>
+      </c>
+      <c r="E254">
+        <v>14.0909996881179</v>
+      </c>
+      <c r="F254">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" t="s">
+        <v>46</v>
+      </c>
+      <c r="D255">
+        <v>6.6321466581941904</v>
+      </c>
+      <c r="E255">
+        <v>13.289259752044501</v>
+      </c>
+      <c r="F255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" t="s">
+        <v>46</v>
+      </c>
+      <c r="D256">
+        <v>7.04260360960697</v>
+      </c>
+      <c r="E256">
+        <v>16.898084365406199</v>
+      </c>
+      <c r="F256">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" t="s">
+        <v>46</v>
+      </c>
+      <c r="D257">
+        <v>6.9758799698121798</v>
+      </c>
+      <c r="E257">
+        <v>15.0892818137966</v>
+      </c>
+      <c r="F257">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>46</v>
+      </c>
+      <c r="D258">
+        <v>8.01094864807812</v>
+      </c>
+      <c r="E258">
+        <v>15.723567103765401</v>
+      </c>
+      <c r="F258">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>46</v>
+      </c>
+      <c r="D259">
+        <v>7.8506723843122197</v>
+      </c>
+      <c r="E259">
+        <v>16.2375790870354</v>
+      </c>
+      <c r="F259">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" t="s">
+        <v>46</v>
+      </c>
+      <c r="D260">
+        <v>5.1757901463935001</v>
+      </c>
+      <c r="E260">
+        <v>16.786445951733</v>
+      </c>
+      <c r="F260">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" t="s">
+        <v>46</v>
+      </c>
+      <c r="D261">
+        <v>5.4142047074328596</v>
+      </c>
+      <c r="E261">
+        <v>16.377348129986299</v>
+      </c>
+      <c r="F261">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>46</v>
+      </c>
+      <c r="D262">
+        <v>7.6676588423068797</v>
+      </c>
+      <c r="E262">
+        <v>15.614655699953399</v>
+      </c>
+      <c r="F262">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>46</v>
+      </c>
+      <c r="D263">
+        <v>7.6215887523108297</v>
+      </c>
+      <c r="E263">
+        <v>14.6586333501899</v>
+      </c>
+      <c r="F263">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>46</v>
+      </c>
+      <c r="D264">
+        <v>6.9868228963787598</v>
+      </c>
+      <c r="E264">
+        <v>13.5950298214276</v>
+      </c>
+      <c r="F264">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" t="s">
+        <v>46</v>
+      </c>
+      <c r="D265">
+        <v>7.0057427670478498</v>
+      </c>
+      <c r="E265">
+        <v>14.497476842022801</v>
+      </c>
+      <c r="F265">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>46</v>
+      </c>
+      <c r="D266">
+        <v>5.2306586623818401</v>
+      </c>
+      <c r="E266">
+        <v>13.655762340922401</v>
+      </c>
+      <c r="F266">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>46</v>
+      </c>
+      <c r="D267">
+        <v>5.2567337514095298</v>
+      </c>
+      <c r="E267">
+        <v>13.6287240080558</v>
+      </c>
+      <c r="F267">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" t="s">
+        <v>46</v>
+      </c>
+      <c r="D268">
+        <v>7.3792820521888398</v>
+      </c>
+      <c r="E268">
+        <v>14.025396035700799</v>
+      </c>
+      <c r="F268">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" t="s">
+        <v>46</v>
+      </c>
+      <c r="D269">
+        <v>6.88918889527804</v>
+      </c>
+      <c r="E269">
+        <v>16.113896834936199</v>
+      </c>
+      <c r="F269">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>46</v>
+      </c>
+      <c r="D270">
+        <v>6.9493288724964204</v>
+      </c>
+      <c r="E270">
+        <v>15.8200729805893</v>
+      </c>
+      <c r="F270">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>46</v>
+      </c>
+      <c r="D271">
+        <v>8.3654419827511699</v>
+      </c>
+      <c r="E271">
+        <v>15.1995485535704</v>
+      </c>
+      <c r="F271">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272" t="s">
+        <v>46</v>
+      </c>
+      <c r="D272">
+        <v>8.5076843004969103</v>
+      </c>
+      <c r="E272">
+        <v>16.254780558177501</v>
+      </c>
+      <c r="F272">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" t="s">
+        <v>46</v>
+      </c>
+      <c r="D273">
+        <v>8.3597919884323701</v>
+      </c>
+      <c r="E273">
+        <v>14.915050102808401</v>
+      </c>
+      <c r="F273">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>46</v>
+      </c>
+      <c r="D274">
+        <v>6.8590185363527496</v>
+      </c>
+      <c r="E274">
+        <v>15.040749503311901</v>
+      </c>
+      <c r="F274">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>46</v>
+      </c>
+      <c r="D275">
+        <v>7.6095103587031598</v>
+      </c>
+      <c r="E275">
+        <v>15.584840452098099</v>
+      </c>
+      <c r="F275">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" t="s">
+        <v>46</v>
+      </c>
+      <c r="D276">
+        <v>5.2984481088760802</v>
+      </c>
+      <c r="E276">
+        <v>14.581435499128199</v>
+      </c>
+      <c r="F276">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" t="s">
+        <v>46</v>
+      </c>
+      <c r="D277">
+        <v>7.3688506950647001</v>
+      </c>
+      <c r="E277">
+        <v>14.2529852944024</v>
+      </c>
+      <c r="F277">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>46</v>
+      </c>
+      <c r="D278">
+        <v>6.7704688805525697</v>
+      </c>
+      <c r="E278">
+        <v>14.231740677644</v>
+      </c>
+      <c r="F278">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>46</v>
+      </c>
+      <c r="D279">
+        <v>4.8563026742015802</v>
+      </c>
+      <c r="E279">
+        <v>15.902842286983899</v>
+      </c>
+      <c r="F279">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" t="s">
+        <v>46</v>
+      </c>
+      <c r="D280">
+        <v>6.97438453331924</v>
+      </c>
+      <c r="E280">
+        <v>13.0093312263859</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281" t="s">
+        <v>46</v>
+      </c>
+      <c r="D281">
+        <v>6.7626215238400196</v>
+      </c>
+      <c r="E281">
+        <v>14.429824352535601</v>
+      </c>
+      <c r="F281">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>46</v>
+      </c>
+      <c r="D282">
+        <v>5.9682482959838303</v>
+      </c>
+      <c r="E282">
+        <v>16.055099036541598</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>46</v>
+      </c>
+      <c r="D283">
+        <v>8.4136640768613198</v>
+      </c>
+      <c r="E283">
+        <v>14.243890860895499</v>
+      </c>
+      <c r="F283">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>46</v>
+      </c>
+      <c r="D284">
+        <v>6.6336463859513799</v>
+      </c>
+      <c r="E284">
+        <v>13.9128480053045</v>
+      </c>
+      <c r="F284">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" t="s">
+        <v>46</v>
+      </c>
+      <c r="D285">
+        <v>7.6420384599404203</v>
+      </c>
+      <c r="E285">
+        <v>12.609136810541999</v>
+      </c>
+      <c r="F285">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>46</v>
+      </c>
+      <c r="D286">
+        <v>8.4876821957259008</v>
+      </c>
+      <c r="E286">
+        <v>13.8505497582931</v>
+      </c>
+      <c r="F286">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>46</v>
+      </c>
+      <c r="D287">
+        <v>6.6397748732763597</v>
+      </c>
+      <c r="E287">
+        <v>15.6991274732855</v>
+      </c>
+      <c r="F287">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288">
+        <v>2</v>
+      </c>
+      <c r="B288" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" t="s">
+        <v>46</v>
+      </c>
+      <c r="D288">
+        <v>6.3698040806445304</v>
+      </c>
+      <c r="E288">
+        <v>14.722893319379599</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" t="s">
+        <v>46</v>
+      </c>
+      <c r="D289">
+        <v>6.7052402343638997</v>
+      </c>
+      <c r="E289">
+        <v>13.6720609088991</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" t="s">
+        <v>46</v>
+      </c>
+      <c r="D290">
+        <v>8.0044672679682805</v>
+      </c>
+      <c r="E290">
+        <v>15.4701061533197</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291" t="s">
+        <v>46</v>
+      </c>
+      <c r="D291">
+        <v>7.9355138186903602</v>
+      </c>
+      <c r="E291">
+        <v>14.292629071254099</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>46</v>
+      </c>
+      <c r="D292">
+        <v>8.7332450077481507</v>
+      </c>
+      <c r="E292">
+        <v>15.243409527213499</v>
+      </c>
+      <c r="F292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>46</v>
+      </c>
+      <c r="D293">
+        <v>8.3061372351135301</v>
+      </c>
+      <c r="E293">
+        <v>14.7142920654682</v>
+      </c>
+      <c r="F293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" t="s">
+        <v>46</v>
+      </c>
+      <c r="D294">
+        <v>6.4725045412550504</v>
+      </c>
+      <c r="E294">
+        <v>14.073390906342301</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>46</v>
+      </c>
+      <c r="D295">
+        <v>7.12856156957809</v>
+      </c>
+      <c r="E295">
+        <v>15.264127753893099</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>46</v>
+      </c>
+      <c r="D296">
+        <v>7.0652118548869103</v>
+      </c>
+      <c r="E296">
+        <v>13.638220713358301</v>
+      </c>
+      <c r="F296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" t="s">
+        <v>46</v>
+      </c>
+      <c r="D297">
+        <v>8.4041630735946704</v>
+      </c>
+      <c r="E297">
+        <v>14.1565837797511</v>
+      </c>
+      <c r="F297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" t="s">
+        <v>46</v>
+      </c>
+      <c r="D298">
+        <v>7.1788377894899602</v>
+      </c>
+      <c r="E298">
+        <v>15.8961721099068</v>
+      </c>
+      <c r="F298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" t="s">
+        <v>46</v>
+      </c>
+      <c r="D299">
+        <v>4.4735038290682203</v>
+      </c>
+      <c r="E299">
+        <v>14.5700578251952</v>
+      </c>
+      <c r="F299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" t="s">
+        <v>46</v>
+      </c>
+      <c r="D300">
+        <v>6.2391714635407602</v>
+      </c>
+      <c r="E300">
+        <v>14.0960744104668</v>
+      </c>
+      <c r="F300">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" t="s">
+        <v>46</v>
+      </c>
+      <c r="D301">
+        <v>7.3067458725327796</v>
+      </c>
+      <c r="E301">
+        <v>14.495690363826901</v>
+      </c>
+      <c r="F301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" t="s">
+        <v>46</v>
+      </c>
+      <c r="D302">
+        <v>7.1929888341259698</v>
+      </c>
+      <c r="E302">
+        <v>15.5388201079866</v>
+      </c>
+      <c r="F302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" t="s">
+        <v>46</v>
+      </c>
+      <c r="D303">
+        <v>7.0156159549419401</v>
+      </c>
+      <c r="E303">
+        <v>16.119260768407699</v>
+      </c>
+      <c r="F303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" t="s">
+        <v>46</v>
+      </c>
+      <c r="D304">
+        <v>7.3352723993695399</v>
+      </c>
+      <c r="E304">
+        <v>14.6188226700916</v>
+      </c>
+      <c r="F304">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" t="s">
+        <v>46</v>
+      </c>
+      <c r="D305">
+        <v>7.1862648543837704</v>
+      </c>
+      <c r="E305">
+        <v>15.8185465088154</v>
+      </c>
+      <c r="F305">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306" t="s">
+        <v>46</v>
+      </c>
+      <c r="D306">
+        <v>7.9621338173203204</v>
+      </c>
+      <c r="E306">
+        <v>15.599620214963799</v>
+      </c>
+      <c r="F306">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" t="s">
+        <v>46</v>
+      </c>
+      <c r="D307">
+        <v>8.3952417097121597</v>
+      </c>
+      <c r="E307">
+        <v>16.480637600276498</v>
+      </c>
+      <c r="F307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308">
+        <v>2</v>
+      </c>
+      <c r="B308" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" t="s">
+        <v>46</v>
+      </c>
+      <c r="D308">
+        <v>6.3946110137449903</v>
+      </c>
+      <c r="E308">
+        <v>17.321750763232401</v>
+      </c>
+      <c r="F308">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" t="s">
+        <v>46</v>
+      </c>
+      <c r="D309">
+        <v>7.7373343100130096</v>
+      </c>
+      <c r="E309">
+        <v>13.6757928351318</v>
+      </c>
+      <c r="F309">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" t="s">
+        <v>46</v>
+      </c>
+      <c r="D310">
+        <v>7.5167654855262596</v>
+      </c>
+      <c r="E310">
+        <v>16.187245216421399</v>
+      </c>
+      <c r="F310">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" t="s">
+        <v>46</v>
+      </c>
+      <c r="D311">
+        <v>7.7042683133563301</v>
+      </c>
+      <c r="E311">
+        <v>14.5220438189339</v>
+      </c>
+      <c r="F311">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="B312" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312" t="s">
+        <v>46</v>
+      </c>
+      <c r="D312">
+        <v>6.0857219921949604</v>
+      </c>
+      <c r="E312">
+        <v>15.129956444434599</v>
+      </c>
+      <c r="F312">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="B313" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" t="s">
+        <v>46</v>
+      </c>
+      <c r="D313">
+        <v>8.0242836998230693</v>
+      </c>
+      <c r="E313">
+        <v>13.587198017656</v>
+      </c>
+      <c r="F313">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" t="s">
+        <v>46</v>
+      </c>
+      <c r="D314">
+        <v>6.7687353107390003</v>
+      </c>
+      <c r="E314">
+        <v>14.587794614761499</v>
+      </c>
+      <c r="F314">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" t="s">
+        <v>46</v>
+      </c>
+      <c r="D315">
+        <v>6.2024043829007196</v>
+      </c>
+      <c r="E315">
+        <v>14.8709717470232</v>
+      </c>
+      <c r="F315">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316" t="s">
+        <v>14</v>
+      </c>
+      <c r="C316" t="s">
+        <v>46</v>
+      </c>
+      <c r="D316">
+        <v>8.2332288648740395</v>
+      </c>
+      <c r="E316">
+        <v>15.473844972937499</v>
+      </c>
+      <c r="F316">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" t="s">
+        <v>46</v>
+      </c>
+      <c r="D317">
+        <v>7.1295900843281101</v>
+      </c>
+      <c r="E317">
+        <v>14.9090239632914</v>
+      </c>
+      <c r="F317">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" t="s">
+        <v>46</v>
+      </c>
+      <c r="D318">
+        <v>5.2343062973017096</v>
+      </c>
+      <c r="E318">
+        <v>14.6841697380389</v>
+      </c>
+      <c r="F318">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" t="s">
+        <v>46</v>
+      </c>
+      <c r="D319">
+        <v>7.6621053523787603</v>
+      </c>
+      <c r="E319">
+        <v>14.922856922098701</v>
+      </c>
+      <c r="F319">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320" t="s">
+        <v>14</v>
+      </c>
+      <c r="C320" t="s">
+        <v>46</v>
+      </c>
+      <c r="D320">
+        <v>8.4373411013687196</v>
+      </c>
+      <c r="E320">
+        <v>13.888766418499801</v>
+      </c>
+      <c r="F320">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321" t="s">
+        <v>14</v>
+      </c>
+      <c r="C321" t="s">
+        <v>46</v>
+      </c>
+      <c r="D321">
+        <v>6.9300527172281896</v>
+      </c>
+      <c r="E321">
+        <v>15.0733123034677</v>
+      </c>
+      <c r="F321">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="B322" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" t="s">
+        <v>46</v>
+      </c>
+      <c r="D322">
+        <v>7.2952196897591497</v>
+      </c>
+      <c r="E322">
+        <v>15.3656967025785</v>
+      </c>
+      <c r="F322">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" t="s">
+        <v>46</v>
+      </c>
+      <c r="D323">
+        <v>8.2264020831562998</v>
+      </c>
+      <c r="E323">
+        <v>15.2131460907838</v>
+      </c>
+      <c r="F323">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324" t="s">
+        <v>46</v>
+      </c>
+      <c r="D324">
+        <v>7.0325735221813801</v>
+      </c>
+      <c r="E324">
+        <v>16.029860244051999</v>
+      </c>
+      <c r="F324">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325" t="s">
+        <v>46</v>
+      </c>
+      <c r="D325">
+        <v>5.9207603985598398</v>
+      </c>
+      <c r="E325">
+        <v>15.625582231777701</v>
+      </c>
+      <c r="F325">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" t="s">
+        <v>46</v>
+      </c>
+      <c r="D326">
+        <v>7.5886914808784596</v>
+      </c>
+      <c r="E326">
+        <v>14.0720143076732</v>
+      </c>
+      <c r="F326">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" t="s">
+        <v>46</v>
+      </c>
+      <c r="D327">
+        <v>7.7994972573800796</v>
+      </c>
+      <c r="E327">
+        <v>15.239014644758701</v>
+      </c>
+      <c r="F327">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328">
+        <v>2</v>
+      </c>
+      <c r="B328" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" t="s">
+        <v>46</v>
+      </c>
+      <c r="D328">
+        <v>6.9777398600315301</v>
+      </c>
+      <c r="E328">
+        <v>14.951793484215401</v>
+      </c>
+      <c r="F328">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" t="s">
+        <v>46</v>
+      </c>
+      <c r="D329">
+        <v>7.0770738728938101</v>
+      </c>
+      <c r="E329">
+        <v>14.7525226976346</v>
+      </c>
+      <c r="F329">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330">
+        <v>2</v>
+      </c>
+      <c r="B330" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" t="s">
+        <v>46</v>
+      </c>
+      <c r="D330">
+        <v>8.6560280589405298</v>
+      </c>
+      <c r="E330">
+        <v>14.7306048630475</v>
+      </c>
+      <c r="F330">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331" t="s">
+        <v>46</v>
+      </c>
+      <c r="D331">
+        <v>7.69373680164595</v>
+      </c>
+      <c r="E331">
+        <v>13.7944321462047</v>
+      </c>
+      <c r="F331">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332">
+        <v>2</v>
+      </c>
+      <c r="B332" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" t="s">
+        <v>46</v>
+      </c>
+      <c r="D332">
+        <v>6.4268603375476596</v>
+      </c>
+      <c r="E332">
+        <v>15.7838053796112</v>
+      </c>
+      <c r="F332">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" t="s">
+        <v>46</v>
+      </c>
+      <c r="D333">
+        <v>7.6521784837931097</v>
+      </c>
+      <c r="E333">
+        <v>14.602747882416599</v>
+      </c>
+      <c r="F333">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" t="s">
+        <v>46</v>
+      </c>
+      <c r="D334">
+        <v>7.6682677188435298</v>
+      </c>
+      <c r="E334">
+        <v>15.7745359916841</v>
+      </c>
+      <c r="F334">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335" t="s">
+        <v>13</v>
+      </c>
+      <c r="C335" t="s">
+        <v>46</v>
+      </c>
+      <c r="D335">
+        <v>7.9578626028473796</v>
+      </c>
+      <c r="E335">
+        <v>14.650026814683599</v>
+      </c>
+      <c r="F335">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336">
+        <v>2</v>
+      </c>
+      <c r="B336" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336" t="s">
+        <v>46</v>
+      </c>
+      <c r="D336">
+        <v>6.8233316200163703</v>
+      </c>
+      <c r="E336">
+        <v>17.218609666278201</v>
+      </c>
+      <c r="F336">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337" t="s">
+        <v>46</v>
+      </c>
+      <c r="D337">
+        <v>6.8343850608394998</v>
+      </c>
+      <c r="E337">
+        <v>13.983365837588099</v>
+      </c>
+      <c r="F337">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338">
+        <v>2</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" t="s">
+        <v>46</v>
+      </c>
+      <c r="D338">
+        <v>6.70531025363172</v>
+      </c>
+      <c r="E338">
+        <v>15.3234503060624</v>
+      </c>
+      <c r="F338">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" t="s">
+        <v>46</v>
+      </c>
+      <c r="D339">
+        <v>7.4946415646241702</v>
+      </c>
+      <c r="E339">
+        <v>14.300490354047099</v>
+      </c>
+      <c r="F339">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340">
+        <v>2</v>
+      </c>
+      <c r="B340" t="s">
+        <v>14</v>
+      </c>
+      <c r="C340" t="s">
+        <v>46</v>
+      </c>
+      <c r="D340">
+        <v>5.5081053812649801</v>
+      </c>
+      <c r="E340">
+        <v>14.969589466063701</v>
+      </c>
+      <c r="F340">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341" t="s">
+        <v>46</v>
+      </c>
+      <c r="D341">
+        <v>6.1343335161555297</v>
+      </c>
+      <c r="E341">
+        <v>15.167824715945599</v>
+      </c>
+      <c r="F341">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342">
+        <v>2</v>
+      </c>
+      <c r="B342" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" t="s">
+        <v>46</v>
+      </c>
+      <c r="D342">
+        <v>5.85340451738504</v>
+      </c>
+      <c r="E342">
+        <v>15.7318742323219</v>
+      </c>
+      <c r="F342">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343" t="s">
+        <v>46</v>
+      </c>
+      <c r="D343">
+        <v>7.0515866495750998</v>
+      </c>
+      <c r="E343">
+        <v>12.9927651677797</v>
+      </c>
+      <c r="F343">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="B344" t="s">
+        <v>14</v>
+      </c>
+      <c r="C344" t="s">
+        <v>46</v>
+      </c>
+      <c r="D344">
+        <v>7.8974290674554304</v>
+      </c>
+      <c r="E344">
+        <v>14.350249491090601</v>
+      </c>
+      <c r="F344">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345" t="s">
+        <v>46</v>
+      </c>
+      <c r="D345">
+        <v>5.2105687202612501</v>
+      </c>
+      <c r="E345">
+        <v>15.0095624327957</v>
+      </c>
+      <c r="F345">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346">
+        <v>2</v>
+      </c>
+      <c r="B346" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" t="s">
+        <v>46</v>
+      </c>
+      <c r="D346">
+        <v>7.8932714483525599</v>
+      </c>
+      <c r="E346">
+        <v>13.709671499050099</v>
+      </c>
+      <c r="F346">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>13</v>
+      </c>
+      <c r="C347" t="s">
+        <v>46</v>
+      </c>
+      <c r="D347">
+        <v>6.3438738851575902</v>
+      </c>
+      <c r="E347">
+        <v>15.9944722319202</v>
+      </c>
+      <c r="F347">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348">
+        <v>2</v>
+      </c>
+      <c r="B348" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348" t="s">
+        <v>46</v>
+      </c>
+      <c r="D348">
+        <v>7.5005579335416899</v>
+      </c>
+      <c r="E348">
+        <v>15.732425948974599</v>
+      </c>
+      <c r="F348">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" t="s">
+        <v>46</v>
+      </c>
+      <c r="D349">
+        <v>4.3855609207021304</v>
+      </c>
+      <c r="E349">
+        <v>15.4296625104692</v>
+      </c>
+      <c r="F349">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analyse/testdaten.xlsx
+++ b/Analyse/testdaten.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BEE6ED-B7C5-46FD-8A60-625EE1C06C45}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB436FB-52BD-4E44-93FF-DD881808CA4C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$368</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="49">
   <si>
     <t>geraet</t>
   </si>
@@ -161,6 +164,12 @@
   </si>
   <si>
     <t>ct</t>
+  </si>
+  <si>
+    <t>A714</t>
+  </si>
+  <si>
+    <t>A704</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F349"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="E354" sqref="E354"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -548,10 +557,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -560,50 +569,50 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -611,79 +620,79 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -691,19 +700,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -711,19 +720,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -731,16 +740,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -748,39 +757,39 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -788,59 +797,59 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>5.3</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -848,42 +857,42 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -891,79 +900,79 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -971,199 +980,199 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>3.15</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>4.45</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>15.2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>16.3</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>14.1</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>15.2</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
       <c r="D34">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1171,84 +1180,84 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>14.4</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>15.2</v>
+        <v>11.5</v>
       </c>
       <c r="F37">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>15.3</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>17.7</v>
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -1257,118 +1266,118 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="E39">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>15.2</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>17.7</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -1377,18 +1386,18 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>13.4</v>
+        <v>3.15</v>
       </c>
       <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
         <v>15</v>
-      </c>
-      <c r="F45">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -1397,113 +1406,113 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>13.4</v>
+        <v>4.45</v>
       </c>
       <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
         <v>15</v>
-      </c>
-      <c r="F46">
-        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>15</v>
-      </c>
       <c r="F47">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>15.2</v>
       </c>
       <c r="F48">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>16.3</v>
       </c>
       <c r="F49">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>10.1</v>
+        <v>15</v>
       </c>
       <c r="E50">
+        <v>16.5</v>
+      </c>
+      <c r="F50">
         <v>15</v>
-      </c>
-      <c r="F50">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1511,39 +1520,39 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>14.1</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>15.2</v>
       </c>
       <c r="F52">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>15.2</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>16.3</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1551,59 +1560,59 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
         <v>15</v>
       </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
       <c r="E54">
-        <v>1.1000000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>11.3</v>
       </c>
       <c r="E55">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>14.4</v>
       </c>
       <c r="E56">
-        <v>3.1</v>
+        <v>15.2</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1611,119 +1620,119 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>15.3</v>
       </c>
       <c r="E57">
-        <v>4.0999999999999996</v>
+        <v>17.7</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>14.1</v>
       </c>
       <c r="E60">
-        <v>7.1</v>
+        <v>15.2</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>15.2</v>
       </c>
       <c r="E61">
-        <v>8.1</v>
+        <v>17.7</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>9.1</v>
+        <v>16.5</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1731,99 +1740,99 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>10.1</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>13.4</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="F64">
         <v>25</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>11</v>
-      </c>
-      <c r="E64">
-        <v>11.1</v>
-      </c>
-      <c r="F64">
-        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>13.4</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65">
         <v>26</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>12</v>
-      </c>
-      <c r="E65">
-        <v>12.1</v>
-      </c>
-      <c r="F65">
-        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="E67">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1831,379 +1840,379 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>15.1</v>
+        <v>20</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>10.1</v>
       </c>
       <c r="E69">
-        <v>16.100000000000001</v>
+        <v>15</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>17.100000000000001</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>18.100000000000001</v>
+        <v>9</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>19.100000000000001</v>
+        <v>9</v>
       </c>
       <c r="F72">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>20.100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>21.1</v>
+        <v>2.1</v>
       </c>
       <c r="F74">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>22.1</v>
+        <v>3.1</v>
       </c>
       <c r="F75">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>23.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F76">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>24.1</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E78">
-        <v>25.1</v>
+        <v>6.1</v>
       </c>
       <c r="F78">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
       </c>
       <c r="D79">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>26.1</v>
+        <v>7.1</v>
       </c>
       <c r="F79">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>10.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>10.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>10.199999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>10.9</v>
+        <v>13</v>
       </c>
       <c r="E85">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>11.8</v>
+        <v>14</v>
       </c>
       <c r="E86">
-        <v>12.5</v>
+        <v>14.1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2211,1244 +2220,1244 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>10.1</v>
+        <v>15</v>
       </c>
       <c r="E87">
-        <v>10.5</v>
+        <v>15.1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>10.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E91">
-        <v>10.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E92">
-        <v>10.8</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>12.2</v>
+        <v>21</v>
       </c>
       <c r="E93">
-        <v>13.9</v>
+        <v>21.1</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E94">
-        <v>13.9</v>
+        <v>22.1</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>14.8</v>
+        <v>23.1</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E96">
-        <v>14.8</v>
+        <v>24.1</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="E97">
-        <v>18.2</v>
+        <v>25.1</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>18.2</v>
+        <v>26.1</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E99">
-        <v>5.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E100">
-        <v>5.8</v>
+        <v>10.4</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>4.5</v>
+        <v>10.7</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>11.6</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>11.6</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D103">
-        <v>8.1999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="E103">
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>11.1</v>
       </c>
       <c r="E104">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="E105">
-        <v>9.1999999999999993</v>
+        <v>12.5</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="E106">
-        <v>9.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>8.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="F107">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>16.3</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>18.600000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="F110">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>13.4</v>
+        <v>10.8</v>
       </c>
       <c r="F111">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="E112">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="F112">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E113">
-        <v>17.100000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="F113">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E114">
-        <v>17.100000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="F114">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="E116">
-        <v>14.5</v>
+        <v>18.2</v>
       </c>
       <c r="F116">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E117">
-        <v>11.2</v>
+        <v>18.2</v>
       </c>
       <c r="F117">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>11.2</v>
+        <v>5.8</v>
       </c>
       <c r="F118">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>11.8</v>
+        <v>5.8</v>
       </c>
       <c r="F119">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="E120">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="F120">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>12.2</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>12.7</v>
+        <v>7</v>
       </c>
       <c r="F121">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>12</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E122">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="F122">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123">
-        <v>18.3</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>18.899999999999999</v>
+        <v>11</v>
       </c>
       <c r="F123">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="E124">
-        <v>18.899999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F124">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B125" t="s">
         <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D125">
-        <v>16.100000000000001</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>17.600000000000001</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F125">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>15</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E126">
-        <v>17.600000000000001</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>13.2</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>13</v>
+        <v>16.3</v>
       </c>
       <c r="E128">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F128">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="E129">
-        <v>16.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F129">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130">
         <v>13</v>
       </c>
       <c r="E130">
-        <v>16.100000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="F130">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="F131">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E132">
-        <v>11.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F132">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="E133">
-        <v>17.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F133">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E134">
-        <v>17.3</v>
+        <v>14.5</v>
       </c>
       <c r="F134">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B135" t="s">
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>14.2</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F135">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>15.1</v>
+        <v>11.2</v>
       </c>
       <c r="F136">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B137" t="s">
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137">
-        <v>16.3</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>17.5</v>
+        <v>11.2</v>
       </c>
       <c r="F137">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="E138">
-        <v>17.5</v>
+        <v>11.8</v>
       </c>
       <c r="F138">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>11.8</v>
       </c>
       <c r="F139">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="E140">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="F140">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B141" t="s">
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="E141">
-        <v>9.3000000000000007</v>
+        <v>12.7</v>
       </c>
       <c r="F141">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>18.3</v>
       </c>
       <c r="E142">
-        <v>9.3000000000000007</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F142">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E143">
-        <v>13</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F143">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144">
-        <v>12</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E144">
-        <v>13</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F144">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D145">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>16.399999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F145">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>13.2</v>
       </c>
       <c r="E146">
-        <v>16.399999999999999</v>
+        <v>15</v>
       </c>
       <c r="F146">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E147">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F147">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>14.1</v>
       </c>
       <c r="E148">
-        <v>4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F148">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B149" t="s">
         <v>14</v>
@@ -3457,38 +3466,38 @@
         <v>5</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
       <c r="D150">
-        <v>1.5</v>
+        <v>10.1</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>11.4</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
@@ -3497,38 +3506,38 @@
         <v>5</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>2.5</v>
+        <v>11.4</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
       </c>
       <c r="D152">
-        <v>2.2999999999999998</v>
+        <v>14.5</v>
       </c>
       <c r="E152">
-        <v>2.5</v>
+        <v>17.3</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="B153" t="s">
         <v>14</v>
@@ -3537,38 +3546,38 @@
         <v>5</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E153">
-        <v>6.5</v>
+        <v>17.3</v>
       </c>
       <c r="F153">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>14.2</v>
       </c>
       <c r="E154">
-        <v>6.5</v>
+        <v>15.1</v>
       </c>
       <c r="F154">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
@@ -3577,38 +3586,38 @@
         <v>5</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E155">
-        <v>5.9</v>
+        <v>15.1</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>5.5</v>
+        <v>16.3</v>
       </c>
       <c r="E156">
-        <v>5.9</v>
+        <v>17.5</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B157" t="s">
         <v>14</v>
@@ -3617,38 +3626,38 @@
         <v>5</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E157">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="F157">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>11.4</v>
       </c>
       <c r="E158">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="F158">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -3657,38 +3666,38 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>15</v>
+        <v>11.8</v>
       </c>
       <c r="F159">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="E160">
-        <v>15</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F160">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
         <v>14</v>
@@ -3697,38 +3706,38 @@
         <v>5</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>14</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F161">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="E162">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
@@ -3737,38 +3746,38 @@
         <v>5</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F163">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="E164">
-        <v>17</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F164">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s">
         <v>14</v>
@@ -3777,38 +3786,38 @@
         <v>5</v>
       </c>
       <c r="D165">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E165">
-        <v>19</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F165">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166">
-        <v>17.600000000000001</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F166">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
@@ -3817,1258 +3826,1258 @@
         <v>5</v>
       </c>
       <c r="D167">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>16.5</v>
+        <v>4</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169">
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="E169">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F169">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D170">
-        <v>14.6</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="F170">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D171">
-        <v>13</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E171">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="F171">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="F172">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B173" t="s">
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="F173">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>15</v>
+        <v>5.9</v>
       </c>
       <c r="F174">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="E175">
-        <v>13</v>
+        <v>5.9</v>
       </c>
       <c r="F175">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F176">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B177" t="s">
         <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F177">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178">
-        <v>11.2</v>
+        <v>13</v>
       </c>
       <c r="E178">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F178">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="E179">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F179">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F180">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>11.6</v>
       </c>
       <c r="E181">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F181">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F182">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="E183">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F183">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>12.4</v>
+        <v>17</v>
       </c>
       <c r="E184">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F184">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E185">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F185">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E186">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="F186">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B187" t="s">
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D187">
+        <v>16</v>
+      </c>
+      <c r="E187">
+        <v>16.5</v>
+      </c>
+      <c r="F187">
         <v>10</v>
-      </c>
-      <c r="E187">
-        <v>11.5</v>
-      </c>
-      <c r="F187">
-        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D188">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="E188">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="F188">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D189">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="E189">
         <v>17</v>
       </c>
       <c r="F189">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D190">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F190">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D191">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F191">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F192">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B193" t="s">
         <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E193">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E194">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F194">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B195" t="s">
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F195">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="E196">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F196">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
         <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197">
-        <v>14</v>
+        <v>11.2</v>
       </c>
       <c r="E197">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="F197">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D198">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="E198">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="F198">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B199" t="s">
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E199">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F199">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E200">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F200">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F201">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F202">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D203">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="E203">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F203">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F204">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B205" t="s">
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="E205">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F205">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D206">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="F206">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B207" t="s">
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="E207">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="F207">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208">
-        <v>2.5</v>
+        <v>15.8</v>
       </c>
       <c r="E208">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F208">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D209">
+        <v>14</v>
+      </c>
+      <c r="E209">
         <v>17</v>
       </c>
-      <c r="E209">
-        <v>19.5</v>
-      </c>
       <c r="F209">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D210">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="F210">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="B211" t="s">
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D211">
-        <v>7.2982699673656999</v>
+        <v>7.5</v>
       </c>
       <c r="E211">
-        <v>13.9981333570601</v>
+        <v>9</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D212">
-        <v>6.5728041686600696</v>
+        <v>13</v>
       </c>
       <c r="E212">
-        <v>15.361723711598399</v>
+        <v>16</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B213" t="s">
         <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D213">
-        <v>8.4539663262105496</v>
+        <v>14</v>
       </c>
       <c r="E213">
-        <v>15.964802788402601</v>
+        <v>16</v>
       </c>
       <c r="F213">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D214">
-        <v>8.7802282378792498</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>14.9331062352666</v>
+        <v>11</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="B215" t="s">
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D215">
-        <v>7.4485200069822097</v>
+        <v>10.7</v>
       </c>
       <c r="E215">
-        <v>14.1504504289635</v>
+        <v>11</v>
       </c>
       <c r="F215">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D216">
-        <v>6.0061057282027797</v>
+        <v>14</v>
       </c>
       <c r="E216">
-        <v>15.342389678918799</v>
+        <v>16.5</v>
       </c>
       <c r="F216">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <v>7.2305437236099399</v>
+        <v>14.5</v>
       </c>
       <c r="E217">
-        <v>14.5613058874189</v>
+        <v>16.5</v>
       </c>
       <c r="F217">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D218">
-        <v>7.4848278592761197</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>15.8508068759763</v>
+        <v>12</v>
       </c>
       <c r="F218">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="B219" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D219">
-        <v>7.3136717272626299</v>
+        <v>9.5</v>
       </c>
       <c r="E219">
-        <v>14.982358892411501</v>
+        <v>12</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D220">
-        <v>9.0092597889550596</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>15.579640456756801</v>
+        <v>7</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B221" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C221" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D221">
-        <v>6.5671657224328897</v>
+        <v>6.8</v>
       </c>
       <c r="E221">
-        <v>14.9759166982326</v>
+        <v>7</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="B222" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D222">
-        <v>6.6657276296774599</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>14.8607461863553</v>
+        <v>14</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D223">
-        <v>8.0333412796865495</v>
+        <v>12.2</v>
       </c>
       <c r="E223">
-        <v>14.072227538756101</v>
+        <v>14</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="B224" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>5.1910750596806903</v>
+        <v>14</v>
       </c>
       <c r="E224">
-        <v>14.7736684901014</v>
+        <v>18</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="B225" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D225">
-        <v>5.9991445996219497</v>
+        <v>15</v>
       </c>
       <c r="E225">
-        <v>15.7507249076922</v>
+        <v>18</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="B226" t="s">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>7.0464679186307597</v>
+        <v>2</v>
       </c>
       <c r="E226">
-        <v>16.6322607670627</v>
+        <v>4</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="B227" t="s">
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D227">
-        <v>6.4426189843877903</v>
+        <v>2.5</v>
       </c>
       <c r="E227">
-        <v>14.453039645499301</v>
+        <v>4</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B228" t="s">
         <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D228">
-        <v>7.2034626744973496</v>
+        <v>17</v>
       </c>
       <c r="E228">
-        <v>13.0216124200505</v>
+        <v>19.5</v>
       </c>
       <c r="F228">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D229">
-        <v>8.2933861855548905</v>
+        <v>19</v>
       </c>
       <c r="E229">
-        <v>13.812695470931899</v>
+        <v>19.5</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
         <v>13</v>
@@ -5077,18 +5086,18 @@
         <v>46</v>
       </c>
       <c r="D230">
-        <v>5.5632505560467402</v>
+        <v>7.2982699673656999</v>
       </c>
       <c r="E230">
-        <v>15.6751429712702</v>
+        <v>13.9981333570601</v>
       </c>
       <c r="F230">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B231" t="s">
         <v>13</v>
@@ -5097,18 +5106,18 @@
         <v>46</v>
       </c>
       <c r="D231">
-        <v>6.4129052715599304</v>
+        <v>6.5728041686600696</v>
       </c>
       <c r="E231">
-        <v>16.659976661924901</v>
+        <v>15.361723711598399</v>
       </c>
       <c r="F231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B232" t="s">
         <v>14</v>
@@ -5117,18 +5126,18 @@
         <v>46</v>
       </c>
       <c r="D232">
-        <v>6.8659257820016402</v>
+        <v>8.4539663262105496</v>
       </c>
       <c r="E232">
-        <v>15.105164483767201</v>
+        <v>15.964802788402601</v>
       </c>
       <c r="F232">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B233" t="s">
         <v>14</v>
@@ -5137,18 +5146,18 @@
         <v>46</v>
       </c>
       <c r="D233">
-        <v>8.1315806669051902</v>
+        <v>8.7802282378792498</v>
       </c>
       <c r="E233">
-        <v>15.496364719567399</v>
+        <v>14.9331062352666</v>
       </c>
       <c r="F233">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" t="s">
         <v>13</v>
@@ -5157,18 +5166,18 @@
         <v>46</v>
       </c>
       <c r="D234">
-        <v>7.0860620911303904</v>
+        <v>7.4485200069822097</v>
       </c>
       <c r="E234">
-        <v>14.2603161515451</v>
+        <v>14.1504504289635</v>
       </c>
       <c r="F234">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B235" t="s">
         <v>13</v>
@@ -5177,18 +5186,18 @@
         <v>46</v>
       </c>
       <c r="D235">
-        <v>7.0458735403506898</v>
+        <v>6.0061057282027797</v>
       </c>
       <c r="E235">
-        <v>15.5908249272451</v>
+        <v>15.342389678918799</v>
       </c>
       <c r="F235">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" t="s">
         <v>14</v>
@@ -5197,18 +5206,18 @@
         <v>46</v>
       </c>
       <c r="D236">
-        <v>6.0587162937119201</v>
+        <v>7.2305437236099399</v>
       </c>
       <c r="E236">
-        <v>14.6805205553917</v>
+        <v>14.5613058874189</v>
       </c>
       <c r="F236">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B237" t="s">
         <v>14</v>
@@ -5217,18 +5226,18 @@
         <v>46</v>
       </c>
       <c r="D237">
-        <v>8.9888561435558998</v>
+        <v>7.4848278592761197</v>
       </c>
       <c r="E237">
-        <v>12.7325486968445</v>
+        <v>15.8508068759763</v>
       </c>
       <c r="F237">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
@@ -5237,18 +5246,18 @@
         <v>46</v>
       </c>
       <c r="D238">
-        <v>5.3868250481678697</v>
+        <v>7.3136717272626299</v>
       </c>
       <c r="E238">
-        <v>15.217532414014</v>
+        <v>14.982358892411501</v>
       </c>
       <c r="F238">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B239" t="s">
         <v>13</v>
@@ -5257,18 +5266,18 @@
         <v>46</v>
       </c>
       <c r="D239">
-        <v>6.8241112024775603</v>
+        <v>9.0092597889550596</v>
       </c>
       <c r="E239">
-        <v>14.7869390825227</v>
+        <v>15.579640456756801</v>
       </c>
       <c r="F239">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
         <v>14</v>
@@ -5277,18 +5286,18 @@
         <v>46</v>
       </c>
       <c r="D240">
-        <v>5.9274320516206496</v>
+        <v>6.5671657224328897</v>
       </c>
       <c r="E240">
-        <v>14.341773913390901</v>
+        <v>14.9759166982326</v>
       </c>
       <c r="F240">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B241" t="s">
         <v>14</v>
@@ -5297,18 +5306,18 @@
         <v>46</v>
       </c>
       <c r="D241">
-        <v>7.6387016961523697</v>
+        <v>6.6657276296774599</v>
       </c>
       <c r="E241">
-        <v>15.6127989049979</v>
+        <v>14.8607461863553</v>
       </c>
       <c r="F241">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
@@ -5317,38 +5326,38 @@
         <v>46</v>
       </c>
       <c r="D242">
-        <v>7.5649580125042801</v>
+        <v>8.0333412796865495</v>
       </c>
       <c r="E242">
-        <v>16.804318962050601</v>
+        <v>14.072227538756101</v>
       </c>
       <c r="F242">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C243" t="s">
         <v>46</v>
       </c>
       <c r="D243">
-        <v>6.3666426449803399</v>
+        <v>5.1910750596806903</v>
       </c>
       <c r="E243">
-        <v>15.3027761967329</v>
+        <v>14.7736684901014</v>
       </c>
       <c r="F243">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B244" t="s">
         <v>14</v>
@@ -5357,38 +5366,38 @@
         <v>46</v>
       </c>
       <c r="D244">
-        <v>6.9169981095760003</v>
+        <v>5.9991445996219497</v>
       </c>
       <c r="E244">
-        <v>14.981716097558699</v>
+        <v>15.7507249076922</v>
       </c>
       <c r="F244">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245" t="s">
         <v>46</v>
       </c>
       <c r="D245">
-        <v>7.0673537628755696</v>
+        <v>7.0464679186307597</v>
       </c>
       <c r="E245">
-        <v>14.380211335748999</v>
+        <v>16.6322607670627</v>
       </c>
       <c r="F245">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
@@ -5397,38 +5406,38 @@
         <v>46</v>
       </c>
       <c r="D246">
-        <v>6.7663377914742</v>
+        <v>6.4426189843877903</v>
       </c>
       <c r="E246">
-        <v>14.911767965529</v>
+        <v>14.453039645499301</v>
       </c>
       <c r="F246">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
         <v>46</v>
       </c>
       <c r="D247">
-        <v>5.5600148920957002</v>
+        <v>7.2034626744973496</v>
       </c>
       <c r="E247">
-        <v>14.1980849952977</v>
+        <v>13.0216124200505</v>
       </c>
       <c r="F247">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" t="s">
         <v>14</v>
@@ -5437,38 +5446,38 @@
         <v>46</v>
       </c>
       <c r="D248">
-        <v>8.2041331519833207</v>
+        <v>8.2933861855548905</v>
       </c>
       <c r="E248">
-        <v>15.742658179365501</v>
+        <v>13.812695470931899</v>
       </c>
       <c r="F248">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C249" t="s">
         <v>46</v>
       </c>
       <c r="D249">
-        <v>6.6297045887705499</v>
+        <v>5.5632505560467402</v>
       </c>
       <c r="E249">
-        <v>13.587469555676201</v>
+        <v>15.6751429712702</v>
       </c>
       <c r="F249">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
@@ -5477,38 +5486,38 @@
         <v>46</v>
       </c>
       <c r="D250">
-        <v>5.4599666748290296</v>
+        <v>6.4129052715599304</v>
       </c>
       <c r="E250">
-        <v>13.9472066728373</v>
+        <v>16.659976661924901</v>
       </c>
       <c r="F250">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C251" t="s">
         <v>46</v>
       </c>
       <c r="D251">
-        <v>7.0878587011166001</v>
+        <v>6.8659257820016402</v>
       </c>
       <c r="E251">
-        <v>14.5216302032591</v>
+        <v>7</v>
       </c>
       <c r="F251">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252" t="s">
         <v>14</v>
@@ -5517,38 +5526,38 @@
         <v>46</v>
       </c>
       <c r="D252">
-        <v>7.8463363935991897</v>
+        <v>8.1315806669051902</v>
       </c>
       <c r="E252">
-        <v>12.9999634783131</v>
+        <v>15.496364719567399</v>
       </c>
       <c r="F252">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C253" t="s">
         <v>46</v>
       </c>
       <c r="D253">
-        <v>8.0227320073665496</v>
+        <v>7.0860620911303904</v>
       </c>
       <c r="E253">
-        <v>14.548783507148</v>
+        <v>8.5</v>
       </c>
       <c r="F253">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" t="s">
         <v>13</v>
@@ -5557,38 +5566,38 @@
         <v>46</v>
       </c>
       <c r="D254">
-        <v>6.7321789752605499</v>
+        <v>7.0458735403506898</v>
       </c>
       <c r="E254">
-        <v>14.0909996881179</v>
+        <v>15.5908249272451</v>
       </c>
       <c r="F254">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C255" t="s">
         <v>46</v>
       </c>
       <c r="D255">
-        <v>6.6321466581941904</v>
+        <v>6.0587162937119201</v>
       </c>
       <c r="E255">
-        <v>13.289259752044501</v>
+        <v>8</v>
       </c>
       <c r="F255">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B256" t="s">
         <v>14</v>
@@ -5597,38 +5606,38 @@
         <v>46</v>
       </c>
       <c r="D256">
-        <v>7.04260360960697</v>
+        <v>8.9888561435558998</v>
       </c>
       <c r="E256">
-        <v>16.898084365406199</v>
+        <v>12.7325486968445</v>
       </c>
       <c r="F256">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
         <v>46</v>
       </c>
       <c r="D257">
-        <v>6.9758799698121798</v>
+        <v>5.3868250481678697</v>
       </c>
       <c r="E257">
-        <v>15.0892818137966</v>
+        <v>7</v>
       </c>
       <c r="F257">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" t="s">
         <v>13</v>
@@ -5637,38 +5646,38 @@
         <v>46</v>
       </c>
       <c r="D258">
-        <v>8.01094864807812</v>
+        <v>6.8241112024775603</v>
       </c>
       <c r="E258">
-        <v>15.723567103765401</v>
+        <v>14.7869390825227</v>
       </c>
       <c r="F258">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
         <v>46</v>
       </c>
       <c r="D259">
-        <v>7.8506723843122197</v>
+        <v>5.9274320516206496</v>
       </c>
       <c r="E259">
-        <v>16.2375790870354</v>
+        <v>8</v>
       </c>
       <c r="F259">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B260" t="s">
         <v>14</v>
@@ -5677,38 +5686,38 @@
         <v>46</v>
       </c>
       <c r="D260">
-        <v>5.1757901463935001</v>
+        <v>7.6387016961523697</v>
       </c>
       <c r="E260">
-        <v>16.786445951733</v>
+        <v>15.6127989049979</v>
       </c>
       <c r="F260">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
         <v>46</v>
       </c>
       <c r="D261">
-        <v>5.4142047074328596</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>16.377348129986299</v>
+        <v>9</v>
       </c>
       <c r="F261">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" t="s">
         <v>13</v>
@@ -5717,38 +5726,38 @@
         <v>46</v>
       </c>
       <c r="D262">
-        <v>7.6676588423068797</v>
+        <v>6.3666426449803399</v>
       </c>
       <c r="E262">
-        <v>15.614655699953399</v>
+        <v>15.3027761967329</v>
       </c>
       <c r="F262">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
         <v>46</v>
       </c>
       <c r="D263">
-        <v>7.6215887523108297</v>
+        <v>6.9169981095760003</v>
       </c>
       <c r="E263">
-        <v>14.6586333501899</v>
+        <v>14.981716097558699</v>
       </c>
       <c r="F263">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" t="s">
         <v>14</v>
@@ -5757,38 +5766,38 @@
         <v>46</v>
       </c>
       <c r="D264">
-        <v>6.9868228963787598</v>
+        <v>7.0673537628755696</v>
       </c>
       <c r="E264">
-        <v>13.5950298214276</v>
+        <v>14.380211335748999</v>
       </c>
       <c r="F264">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C265" t="s">
         <v>46</v>
       </c>
       <c r="D265">
-        <v>7.0057427670478498</v>
+        <v>6.7663377914742</v>
       </c>
       <c r="E265">
-        <v>14.497476842022801</v>
+        <v>14.911767965529</v>
       </c>
       <c r="F265">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -5797,38 +5806,38 @@
         <v>46</v>
       </c>
       <c r="D266">
-        <v>5.2306586623818401</v>
+        <v>5.5600148920957002</v>
       </c>
       <c r="E266">
-        <v>13.655762340922401</v>
+        <v>14.1980849952977</v>
       </c>
       <c r="F266">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
         <v>46</v>
       </c>
       <c r="D267">
-        <v>5.2567337514095298</v>
+        <v>8.2041331519833207</v>
       </c>
       <c r="E267">
-        <v>13.6287240080558</v>
+        <v>15.742658179365501</v>
       </c>
       <c r="F267">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" t="s">
         <v>14</v>
@@ -5837,38 +5846,38 @@
         <v>46</v>
       </c>
       <c r="D268">
-        <v>7.3792820521888398</v>
+        <v>6.6297045887705499</v>
       </c>
       <c r="E268">
-        <v>14.025396035700799</v>
+        <v>13.587469555676201</v>
       </c>
       <c r="F268">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C269" t="s">
         <v>46</v>
       </c>
       <c r="D269">
-        <v>6.88918889527804</v>
+        <v>5.4599666748290296</v>
       </c>
       <c r="E269">
-        <v>16.113896834936199</v>
+        <v>13.9472066728373</v>
       </c>
       <c r="F269">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
@@ -5877,38 +5886,38 @@
         <v>46</v>
       </c>
       <c r="D270">
-        <v>6.9493288724964204</v>
+        <v>7.0878587011166001</v>
       </c>
       <c r="E270">
-        <v>15.8200729805893</v>
+        <v>14.5216302032591</v>
       </c>
       <c r="F270">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C271" t="s">
         <v>46</v>
       </c>
       <c r="D271">
-        <v>8.3654419827511699</v>
+        <v>7.8463363935991897</v>
       </c>
       <c r="E271">
-        <v>15.1995485535704</v>
+        <v>12.9999634783131</v>
       </c>
       <c r="F271">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" t="s">
         <v>14</v>
@@ -5917,38 +5926,38 @@
         <v>46</v>
       </c>
       <c r="D272">
-        <v>8.5076843004969103</v>
+        <v>8.0227320073665496</v>
       </c>
       <c r="E272">
-        <v>16.254780558177501</v>
+        <v>14.548783507148</v>
       </c>
       <c r="F272">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C273" t="s">
         <v>46</v>
       </c>
       <c r="D273">
-        <v>8.3597919884323701</v>
+        <v>6.7321789752605499</v>
       </c>
       <c r="E273">
-        <v>14.915050102808401</v>
+        <v>14.0909996881179</v>
       </c>
       <c r="F273">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" t="s">
         <v>13</v>
@@ -5957,38 +5966,38 @@
         <v>46</v>
       </c>
       <c r="D274">
-        <v>6.8590185363527496</v>
+        <v>6.6321466581941904</v>
       </c>
       <c r="E274">
-        <v>15.040749503311901</v>
+        <v>13.289259752044501</v>
       </c>
       <c r="F274">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
         <v>46</v>
       </c>
       <c r="D275">
-        <v>7.6095103587031598</v>
+        <v>7.04260360960697</v>
       </c>
       <c r="E275">
-        <v>15.584840452098099</v>
+        <v>16.898084365406199</v>
       </c>
       <c r="F275">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" t="s">
         <v>14</v>
@@ -5997,38 +6006,38 @@
         <v>46</v>
       </c>
       <c r="D276">
-        <v>5.2984481088760802</v>
+        <v>6.9758799698121798</v>
       </c>
       <c r="E276">
-        <v>14.581435499128199</v>
+        <v>15.0892818137966</v>
       </c>
       <c r="F276">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
         <v>46</v>
       </c>
       <c r="D277">
-        <v>7.3688506950647001</v>
+        <v>8.01094864807812</v>
       </c>
       <c r="E277">
-        <v>14.2529852944024</v>
+        <v>15.723567103765401</v>
       </c>
       <c r="F277">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
@@ -6037,38 +6046,38 @@
         <v>46</v>
       </c>
       <c r="D278">
-        <v>6.7704688805525697</v>
+        <v>7.8506723843122197</v>
       </c>
       <c r="E278">
-        <v>14.231740677644</v>
+        <v>16.2375790870354</v>
       </c>
       <c r="F278">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C279" t="s">
         <v>46</v>
       </c>
       <c r="D279">
-        <v>4.8563026742015802</v>
+        <v>5.1757901463935001</v>
       </c>
       <c r="E279">
-        <v>15.902842286983899</v>
+        <v>16.786445951733</v>
       </c>
       <c r="F279">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" t="s">
         <v>14</v>
@@ -6077,38 +6086,38 @@
         <v>46</v>
       </c>
       <c r="D280">
-        <v>6.97438453331924</v>
+        <v>5.4142047074328596</v>
       </c>
       <c r="E280">
-        <v>13.0093312263859</v>
+        <v>16.377348129986299</v>
       </c>
       <c r="F280">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C281" t="s">
         <v>46</v>
       </c>
       <c r="D281">
-        <v>6.7626215238400196</v>
+        <v>7.6676588423068797</v>
       </c>
       <c r="E281">
-        <v>14.429824352535601</v>
+        <v>15.614655699953399</v>
       </c>
       <c r="F281">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" t="s">
         <v>13</v>
@@ -6117,38 +6126,38 @@
         <v>46</v>
       </c>
       <c r="D282">
-        <v>5.9682482959838303</v>
+        <v>7.6215887523108297</v>
       </c>
       <c r="E282">
-        <v>16.055099036541598</v>
+        <v>14.6586333501899</v>
       </c>
       <c r="F282">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C283" t="s">
         <v>46</v>
       </c>
       <c r="D283">
-        <v>8.4136640768613198</v>
+        <v>6.9868228963787598</v>
       </c>
       <c r="E283">
-        <v>14.243890860895499</v>
+        <v>13.5950298214276</v>
       </c>
       <c r="F283">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" t="s">
         <v>14</v>
@@ -6157,38 +6166,38 @@
         <v>46</v>
       </c>
       <c r="D284">
-        <v>6.6336463859513799</v>
+        <v>7.0057427670478498</v>
       </c>
       <c r="E284">
-        <v>13.9128480053045</v>
+        <v>14.497476842022801</v>
       </c>
       <c r="F284">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C285" t="s">
         <v>46</v>
       </c>
       <c r="D285">
-        <v>7.6420384599404203</v>
+        <v>5.2306586623818401</v>
       </c>
       <c r="E285">
-        <v>12.609136810541999</v>
+        <v>13.655762340922401</v>
       </c>
       <c r="F285">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
@@ -6197,38 +6206,38 @@
         <v>46</v>
       </c>
       <c r="D286">
-        <v>8.4876821957259008</v>
+        <v>5.2567337514095298</v>
       </c>
       <c r="E286">
-        <v>13.8505497582931</v>
+        <v>13.6287240080558</v>
       </c>
       <c r="F286">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
         <v>46</v>
       </c>
       <c r="D287">
-        <v>6.6397748732763597</v>
+        <v>7.3792820521888398</v>
       </c>
       <c r="E287">
-        <v>15.6991274732855</v>
+        <v>14.025396035700799</v>
       </c>
       <c r="F287">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288" t="s">
         <v>14</v>
@@ -6237,38 +6246,38 @@
         <v>46</v>
       </c>
       <c r="D288">
-        <v>6.3698040806445304</v>
+        <v>6.88918889527804</v>
       </c>
       <c r="E288">
-        <v>14.722893319379599</v>
+        <v>16.113896834936199</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C289" t="s">
         <v>46</v>
       </c>
       <c r="D289">
-        <v>6.7052402343638997</v>
+        <v>6.9493288724964204</v>
       </c>
       <c r="E289">
-        <v>13.6720609088991</v>
+        <v>15.8200729805893</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290" t="s">
         <v>13</v>
@@ -6277,38 +6286,38 @@
         <v>46</v>
       </c>
       <c r="D290">
-        <v>8.0044672679682805</v>
+        <v>8.3654419827511699</v>
       </c>
       <c r="E290">
-        <v>15.4701061533197</v>
+        <v>15.1995485535704</v>
       </c>
       <c r="F290">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C291" t="s">
         <v>46</v>
       </c>
       <c r="D291">
-        <v>7.9355138186903602</v>
+        <v>8.5076843004969103</v>
       </c>
       <c r="E291">
-        <v>14.292629071254099</v>
+        <v>16.254780558177501</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292" t="s">
         <v>14</v>
@@ -6317,38 +6326,38 @@
         <v>46</v>
       </c>
       <c r="D292">
-        <v>8.7332450077481507</v>
+        <v>8.3597919884323701</v>
       </c>
       <c r="E292">
-        <v>15.243409527213499</v>
+        <v>14.915050102808401</v>
       </c>
       <c r="F292">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C293" t="s">
         <v>46</v>
       </c>
       <c r="D293">
-        <v>8.3061372351135301</v>
+        <v>6.8590185363527496</v>
       </c>
       <c r="E293">
-        <v>14.7142920654682</v>
+        <v>15.040749503311901</v>
       </c>
       <c r="F293">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294" t="s">
         <v>13</v>
@@ -6357,38 +6366,38 @@
         <v>46</v>
       </c>
       <c r="D294">
-        <v>6.4725045412550504</v>
+        <v>7.6095103587031598</v>
       </c>
       <c r="E294">
-        <v>14.073390906342301</v>
+        <v>15.584840452098099</v>
       </c>
       <c r="F294">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C295" t="s">
         <v>46</v>
       </c>
       <c r="D295">
-        <v>7.12856156957809</v>
+        <v>5.2984481088760802</v>
       </c>
       <c r="E295">
-        <v>15.264127753893099</v>
+        <v>14.581435499128199</v>
       </c>
       <c r="F295">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B296" t="s">
         <v>14</v>
@@ -6397,38 +6406,38 @@
         <v>46</v>
       </c>
       <c r="D296">
-        <v>7.0652118548869103</v>
+        <v>7.3688506950647001</v>
       </c>
       <c r="E296">
-        <v>13.638220713358301</v>
+        <v>14.2529852944024</v>
       </c>
       <c r="F296">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C297" t="s">
         <v>46</v>
       </c>
       <c r="D297">
-        <v>8.4041630735946704</v>
+        <v>6.7704688805525697</v>
       </c>
       <c r="E297">
-        <v>14.1565837797511</v>
+        <v>14.231740677644</v>
       </c>
       <c r="F297">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B298" t="s">
         <v>13</v>
@@ -6437,38 +6446,38 @@
         <v>46</v>
       </c>
       <c r="D298">
-        <v>7.1788377894899602</v>
+        <v>4.8563026742015802</v>
       </c>
       <c r="E298">
-        <v>15.8961721099068</v>
+        <v>15.902842286983899</v>
       </c>
       <c r="F298">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C299" t="s">
         <v>46</v>
       </c>
       <c r="D299">
-        <v>4.4735038290682203</v>
+        <v>6.97438453331924</v>
       </c>
       <c r="E299">
-        <v>14.5700578251952</v>
+        <v>13.0093312263859</v>
       </c>
       <c r="F299">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" t="s">
         <v>14</v>
@@ -6477,38 +6486,38 @@
         <v>46</v>
       </c>
       <c r="D300">
-        <v>6.2391714635407602</v>
+        <v>6.7626215238400196</v>
       </c>
       <c r="E300">
-        <v>14.0960744104668</v>
+        <v>14.429824352535601</v>
       </c>
       <c r="F300">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
         <v>46</v>
       </c>
       <c r="D301">
-        <v>7.3067458725327796</v>
+        <v>5.9682482959838303</v>
       </c>
       <c r="E301">
-        <v>14.495690363826901</v>
+        <v>16.055099036541598</v>
       </c>
       <c r="F301">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" t="s">
         <v>13</v>
@@ -6517,38 +6526,38 @@
         <v>46</v>
       </c>
       <c r="D302">
-        <v>7.1929888341259698</v>
+        <v>8.4136640768613198</v>
       </c>
       <c r="E302">
-        <v>15.5388201079866</v>
+        <v>14.243890860895499</v>
       </c>
       <c r="F302">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
         <v>46</v>
       </c>
       <c r="D303">
-        <v>7.0156159549419401</v>
+        <v>6.6336463859513799</v>
       </c>
       <c r="E303">
-        <v>16.119260768407699</v>
+        <v>13.9128480053045</v>
       </c>
       <c r="F303">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B304" t="s">
         <v>14</v>
@@ -6557,38 +6566,38 @@
         <v>46</v>
       </c>
       <c r="D304">
-        <v>7.3352723993695399</v>
+        <v>7.6420384599404203</v>
       </c>
       <c r="E304">
-        <v>14.6188226700916</v>
+        <v>12.609136810541999</v>
       </c>
       <c r="F304">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
         <v>46</v>
       </c>
       <c r="D305">
-        <v>7.1862648543837704</v>
+        <v>8.4876821957259008</v>
       </c>
       <c r="E305">
-        <v>15.8185465088154</v>
+        <v>13.8505497582931</v>
       </c>
       <c r="F305">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306" t="s">
         <v>13</v>
@@ -6597,38 +6606,38 @@
         <v>46</v>
       </c>
       <c r="D306">
-        <v>7.9621338173203204</v>
+        <v>6.6397748732763597</v>
       </c>
       <c r="E306">
-        <v>15.599620214963799</v>
+        <v>15.6991274732855</v>
       </c>
       <c r="F306">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C307" t="s">
         <v>46</v>
       </c>
       <c r="D307">
-        <v>8.3952417097121597</v>
+        <v>6.3698040806445304</v>
       </c>
       <c r="E307">
-        <v>16.480637600276498</v>
+        <v>14.722893319379599</v>
       </c>
       <c r="F307">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" t="s">
         <v>14</v>
@@ -6637,38 +6646,38 @@
         <v>46</v>
       </c>
       <c r="D308">
-        <v>6.3946110137449903</v>
+        <v>6.7052402343638997</v>
       </c>
       <c r="E308">
-        <v>17.321750763232401</v>
+        <v>13.6720609088991</v>
       </c>
       <c r="F308">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B309" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C309" t="s">
         <v>46</v>
       </c>
       <c r="D309">
-        <v>7.7373343100130096</v>
+        <v>8.0044672679682805</v>
       </c>
       <c r="E309">
-        <v>13.6757928351318</v>
+        <v>15.4701061533197</v>
       </c>
       <c r="F309">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" t="s">
         <v>13</v>
@@ -6677,38 +6686,38 @@
         <v>46</v>
       </c>
       <c r="D310">
-        <v>7.5167654855262596</v>
+        <v>7.9355138186903602</v>
       </c>
       <c r="E310">
-        <v>16.187245216421399</v>
+        <v>14.292629071254099</v>
       </c>
       <c r="F310">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C311" t="s">
         <v>46</v>
       </c>
       <c r="D311">
-        <v>7.7042683133563301</v>
+        <v>8.7332450077481507</v>
       </c>
       <c r="E311">
-        <v>14.5220438189339</v>
+        <v>15.243409527213499</v>
       </c>
       <c r="F311">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" t="s">
         <v>14</v>
@@ -6717,38 +6726,38 @@
         <v>46</v>
       </c>
       <c r="D312">
-        <v>6.0857219921949604</v>
+        <v>8.3061372351135301</v>
       </c>
       <c r="E312">
-        <v>15.129956444434599</v>
+        <v>14.7142920654682</v>
       </c>
       <c r="F312">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C313" t="s">
         <v>46</v>
       </c>
       <c r="D313">
-        <v>8.0242836998230693</v>
+        <v>6.4725045412550504</v>
       </c>
       <c r="E313">
-        <v>13.587198017656</v>
+        <v>14.073390906342301</v>
       </c>
       <c r="F313">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B314" t="s">
         <v>13</v>
@@ -6757,38 +6766,38 @@
         <v>46</v>
       </c>
       <c r="D314">
-        <v>6.7687353107390003</v>
+        <v>7.12856156957809</v>
       </c>
       <c r="E314">
-        <v>14.587794614761499</v>
+        <v>15.264127753893099</v>
       </c>
       <c r="F314">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C315" t="s">
         <v>46</v>
       </c>
       <c r="D315">
-        <v>6.2024043829007196</v>
+        <v>7.0652118548869103</v>
       </c>
       <c r="E315">
-        <v>14.8709717470232</v>
+        <v>13.638220713358301</v>
       </c>
       <c r="F315">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316" t="s">
         <v>14</v>
@@ -6797,38 +6806,38 @@
         <v>46</v>
       </c>
       <c r="D316">
-        <v>8.2332288648740395</v>
+        <v>8.4041630735946704</v>
       </c>
       <c r="E316">
-        <v>15.473844972937499</v>
+        <v>14.1565837797511</v>
       </c>
       <c r="F316">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C317" t="s">
         <v>46</v>
       </c>
       <c r="D317">
-        <v>7.1295900843281101</v>
+        <v>7.1788377894899602</v>
       </c>
       <c r="E317">
-        <v>14.9090239632914</v>
+        <v>15.8961721099068</v>
       </c>
       <c r="F317">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318" t="s">
         <v>13</v>
@@ -6837,38 +6846,38 @@
         <v>46</v>
       </c>
       <c r="D318">
-        <v>5.2343062973017096</v>
+        <v>4.4735038290682203</v>
       </c>
       <c r="E318">
-        <v>14.6841697380389</v>
+        <v>14.5700578251952</v>
       </c>
       <c r="F318">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C319" t="s">
         <v>46</v>
       </c>
       <c r="D319">
-        <v>7.6621053523787603</v>
+        <v>6.2391714635407602</v>
       </c>
       <c r="E319">
-        <v>14.922856922098701</v>
+        <v>14.0960744104668</v>
       </c>
       <c r="F319">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320" t="s">
         <v>14</v>
@@ -6877,38 +6886,38 @@
         <v>46</v>
       </c>
       <c r="D320">
-        <v>8.4373411013687196</v>
+        <v>7.3067458725327796</v>
       </c>
       <c r="E320">
-        <v>13.888766418499801</v>
+        <v>14.495690363826901</v>
       </c>
       <c r="F320">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C321" t="s">
         <v>46</v>
       </c>
       <c r="D321">
-        <v>6.9300527172281896</v>
+        <v>7.1929888341259698</v>
       </c>
       <c r="E321">
-        <v>15.0733123034677</v>
+        <v>15.5388201079866</v>
       </c>
       <c r="F321">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322" t="s">
         <v>13</v>
@@ -6917,38 +6926,38 @@
         <v>46</v>
       </c>
       <c r="D322">
-        <v>7.2952196897591497</v>
+        <v>7.0156159549419401</v>
       </c>
       <c r="E322">
-        <v>15.3656967025785</v>
+        <v>16.119260768407699</v>
       </c>
       <c r="F322">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C323" t="s">
         <v>46</v>
       </c>
       <c r="D323">
-        <v>8.2264020831562998</v>
+        <v>7.3352723993695399</v>
       </c>
       <c r="E323">
-        <v>15.2131460907838</v>
+        <v>14.6188226700916</v>
       </c>
       <c r="F323">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B324" t="s">
         <v>14</v>
@@ -6957,38 +6966,38 @@
         <v>46</v>
       </c>
       <c r="D324">
-        <v>7.0325735221813801</v>
+        <v>7.1862648543837704</v>
       </c>
       <c r="E324">
-        <v>16.029860244051999</v>
+        <v>15.8185465088154</v>
       </c>
       <c r="F324">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C325" t="s">
         <v>46</v>
       </c>
       <c r="D325">
-        <v>5.9207603985598398</v>
+        <v>7.9621338173203204</v>
       </c>
       <c r="E325">
-        <v>15.625582231777701</v>
+        <v>15.599620214963799</v>
       </c>
       <c r="F325">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B326" t="s">
         <v>13</v>
@@ -6997,38 +7006,38 @@
         <v>46</v>
       </c>
       <c r="D326">
-        <v>7.5886914808784596</v>
+        <v>8.3952417097121597</v>
       </c>
       <c r="E326">
-        <v>14.0720143076732</v>
+        <v>16.480637600276498</v>
       </c>
       <c r="F326">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C327" t="s">
         <v>46</v>
       </c>
       <c r="D327">
-        <v>7.7994972573800796</v>
+        <v>6.3946110137449903</v>
       </c>
       <c r="E327">
-        <v>15.239014644758701</v>
+        <v>17.321750763232401</v>
       </c>
       <c r="F327">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B328" t="s">
         <v>14</v>
@@ -7037,38 +7046,38 @@
         <v>46</v>
       </c>
       <c r="D328">
-        <v>6.9777398600315301</v>
+        <v>7.7373343100130096</v>
       </c>
       <c r="E328">
-        <v>14.951793484215401</v>
+        <v>13.6757928351318</v>
       </c>
       <c r="F328">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C329" t="s">
         <v>46</v>
       </c>
       <c r="D329">
-        <v>7.0770738728938101</v>
+        <v>7.5167654855262596</v>
       </c>
       <c r="E329">
-        <v>14.7525226976346</v>
+        <v>16.187245216421399</v>
       </c>
       <c r="F329">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B330" t="s">
         <v>13</v>
@@ -7077,38 +7086,38 @@
         <v>46</v>
       </c>
       <c r="D330">
-        <v>8.6560280589405298</v>
+        <v>7.7042683133563301</v>
       </c>
       <c r="E330">
-        <v>14.7306048630475</v>
+        <v>14.5220438189339</v>
       </c>
       <c r="F330">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C331" t="s">
         <v>46</v>
       </c>
       <c r="D331">
-        <v>7.69373680164595</v>
+        <v>6.0857219921949604</v>
       </c>
       <c r="E331">
-        <v>13.7944321462047</v>
+        <v>15.129956444434599</v>
       </c>
       <c r="F331">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332" t="s">
         <v>14</v>
@@ -7117,38 +7126,38 @@
         <v>46</v>
       </c>
       <c r="D332">
-        <v>6.4268603375476596</v>
+        <v>8.0242836998230693</v>
       </c>
       <c r="E332">
-        <v>15.7838053796112</v>
+        <v>13.587198017656</v>
       </c>
       <c r="F332">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C333" t="s">
         <v>46</v>
       </c>
       <c r="D333">
-        <v>7.6521784837931097</v>
+        <v>6.7687353107390003</v>
       </c>
       <c r="E333">
-        <v>14.602747882416599</v>
+        <v>14.587794614761499</v>
       </c>
       <c r="F333">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B334" t="s">
         <v>13</v>
@@ -7157,38 +7166,38 @@
         <v>46</v>
       </c>
       <c r="D334">
-        <v>7.6682677188435298</v>
+        <v>6.2024043829007196</v>
       </c>
       <c r="E334">
-        <v>15.7745359916841</v>
+        <v>14.8709717470232</v>
       </c>
       <c r="F334">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C335" t="s">
         <v>46</v>
       </c>
       <c r="D335">
-        <v>7.9578626028473796</v>
+        <v>8.2332288648740395</v>
       </c>
       <c r="E335">
-        <v>14.650026814683599</v>
+        <v>15.473844972937499</v>
       </c>
       <c r="F335">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336" t="s">
         <v>14</v>
@@ -7197,38 +7206,38 @@
         <v>46</v>
       </c>
       <c r="D336">
-        <v>6.8233316200163703</v>
+        <v>7.1295900843281101</v>
       </c>
       <c r="E336">
-        <v>17.218609666278201</v>
+        <v>14.9090239632914</v>
       </c>
       <c r="F336">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C337" t="s">
         <v>46</v>
       </c>
       <c r="D337">
-        <v>6.8343850608394998</v>
+        <v>5.2343062973017096</v>
       </c>
       <c r="E337">
-        <v>13.983365837588099</v>
+        <v>14.6841697380389</v>
       </c>
       <c r="F337">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B338" t="s">
         <v>13</v>
@@ -7237,38 +7246,38 @@
         <v>46</v>
       </c>
       <c r="D338">
-        <v>6.70531025363172</v>
+        <v>7.6621053523787603</v>
       </c>
       <c r="E338">
-        <v>15.3234503060624</v>
+        <v>14.922856922098701</v>
       </c>
       <c r="F338">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B339" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C339" t="s">
         <v>46</v>
       </c>
       <c r="D339">
-        <v>7.4946415646241702</v>
+        <v>8.4373411013687196</v>
       </c>
       <c r="E339">
-        <v>14.300490354047099</v>
+        <v>13.888766418499801</v>
       </c>
       <c r="F339">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340" t="s">
         <v>14</v>
@@ -7277,38 +7286,38 @@
         <v>46</v>
       </c>
       <c r="D340">
-        <v>5.5081053812649801</v>
+        <v>6.9300527172281896</v>
       </c>
       <c r="E340">
-        <v>14.969589466063701</v>
+        <v>15.0733123034677</v>
       </c>
       <c r="F340">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C341" t="s">
         <v>46</v>
       </c>
       <c r="D341">
-        <v>6.1343335161555297</v>
+        <v>7.2952196897591497</v>
       </c>
       <c r="E341">
-        <v>15.167824715945599</v>
+        <v>15.3656967025785</v>
       </c>
       <c r="F341">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" t="s">
         <v>13</v>
@@ -7317,38 +7326,38 @@
         <v>46</v>
       </c>
       <c r="D342">
-        <v>5.85340451738504</v>
+        <v>8.2264020831562998</v>
       </c>
       <c r="E342">
-        <v>15.7318742323219</v>
+        <v>15.2131460907838</v>
       </c>
       <c r="F342">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C343" t="s">
         <v>46</v>
       </c>
       <c r="D343">
-        <v>7.0515866495750998</v>
+        <v>7.0325735221813801</v>
       </c>
       <c r="E343">
-        <v>12.9927651677797</v>
+        <v>16.029860244051999</v>
       </c>
       <c r="F343">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B344" t="s">
         <v>14</v>
@@ -7357,38 +7366,38 @@
         <v>46</v>
       </c>
       <c r="D344">
-        <v>7.8974290674554304</v>
+        <v>5.9207603985598398</v>
       </c>
       <c r="E344">
-        <v>14.350249491090601</v>
+        <v>15.625582231777701</v>
       </c>
       <c r="F344">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
         <v>46</v>
       </c>
       <c r="D345">
-        <v>5.2105687202612501</v>
+        <v>7.5886914808784596</v>
       </c>
       <c r="E345">
-        <v>15.0095624327957</v>
+        <v>14.0720143076732</v>
       </c>
       <c r="F345">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B346" t="s">
         <v>13</v>
@@ -7397,38 +7406,38 @@
         <v>46</v>
       </c>
       <c r="D346">
-        <v>7.8932714483525599</v>
+        <v>7.7994972573800796</v>
       </c>
       <c r="E346">
-        <v>13.709671499050099</v>
+        <v>15.239014644758701</v>
       </c>
       <c r="F346">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C347" t="s">
         <v>46</v>
       </c>
       <c r="D347">
-        <v>6.3438738851575902</v>
+        <v>6.9777398600315301</v>
       </c>
       <c r="E347">
-        <v>15.9944722319202</v>
+        <v>14.951793484215401</v>
       </c>
       <c r="F347">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348" t="s">
         <v>14</v>
@@ -7437,36 +7446,417 @@
         <v>46</v>
       </c>
       <c r="D348">
-        <v>7.5005579335416899</v>
+        <v>7.0770738728938101</v>
       </c>
       <c r="E348">
-        <v>15.732425948974599</v>
+        <v>14.7525226976346</v>
       </c>
       <c r="F348">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
         <v>46</v>
       </c>
       <c r="D349">
+        <v>8.6560280589405298</v>
+      </c>
+      <c r="E349">
+        <v>14.7306048630475</v>
+      </c>
+      <c r="F349">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" t="s">
+        <v>46</v>
+      </c>
+      <c r="D350">
+        <v>7.69373680164595</v>
+      </c>
+      <c r="E350">
+        <v>13.7944321462047</v>
+      </c>
+      <c r="F350">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351">
+        <v>2</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" t="s">
+        <v>46</v>
+      </c>
+      <c r="D351">
+        <v>6.4268603375476596</v>
+      </c>
+      <c r="E351">
+        <v>15.7838053796112</v>
+      </c>
+      <c r="F351">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" t="s">
+        <v>14</v>
+      </c>
+      <c r="C352" t="s">
+        <v>46</v>
+      </c>
+      <c r="D352">
+        <v>7.6521784837931097</v>
+      </c>
+      <c r="E352">
+        <v>14.602747882416599</v>
+      </c>
+      <c r="F352">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353" t="s">
+        <v>46</v>
+      </c>
+      <c r="D353">
+        <v>7.6682677188435298</v>
+      </c>
+      <c r="E353">
+        <v>15.7745359916841</v>
+      </c>
+      <c r="F353">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" t="s">
+        <v>46</v>
+      </c>
+      <c r="D354">
+        <v>7.9578626028473796</v>
+      </c>
+      <c r="E354">
+        <v>14.650026814683599</v>
+      </c>
+      <c r="F354">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" t="s">
+        <v>46</v>
+      </c>
+      <c r="D355">
+        <v>6.8233316200163703</v>
+      </c>
+      <c r="E355">
+        <v>17.218609666278201</v>
+      </c>
+      <c r="F355">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356" t="s">
+        <v>14</v>
+      </c>
+      <c r="C356" t="s">
+        <v>46</v>
+      </c>
+      <c r="D356">
+        <v>6.8343850608394998</v>
+      </c>
+      <c r="E356">
+        <v>13.983365837588099</v>
+      </c>
+      <c r="F356">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357">
+        <v>2</v>
+      </c>
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357" t="s">
+        <v>46</v>
+      </c>
+      <c r="D357">
+        <v>6.70531025363172</v>
+      </c>
+      <c r="E357">
+        <v>15.3234503060624</v>
+      </c>
+      <c r="F357">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" t="s">
+        <v>46</v>
+      </c>
+      <c r="D358">
+        <v>7.4946415646241702</v>
+      </c>
+      <c r="E358">
+        <v>14.300490354047099</v>
+      </c>
+      <c r="F358">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359">
+        <v>2</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" t="s">
+        <v>46</v>
+      </c>
+      <c r="D359">
+        <v>5.5081053812649801</v>
+      </c>
+      <c r="E359">
+        <v>14.969589466063701</v>
+      </c>
+      <c r="F359">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360" t="s">
+        <v>46</v>
+      </c>
+      <c r="D360">
+        <v>6.1343335161555297</v>
+      </c>
+      <c r="E360">
+        <v>15.167824715945599</v>
+      </c>
+      <c r="F360">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361">
+        <v>2</v>
+      </c>
+      <c r="B361" t="s">
+        <v>13</v>
+      </c>
+      <c r="C361" t="s">
+        <v>46</v>
+      </c>
+      <c r="D361">
+        <v>5.85340451738504</v>
+      </c>
+      <c r="E361">
+        <v>15.7318742323219</v>
+      </c>
+      <c r="F361">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362" t="s">
+        <v>13</v>
+      </c>
+      <c r="C362" t="s">
+        <v>46</v>
+      </c>
+      <c r="D362">
+        <v>7.0515866495750998</v>
+      </c>
+      <c r="E362">
+        <v>12.9927651677797</v>
+      </c>
+      <c r="F362">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363">
+        <v>2</v>
+      </c>
+      <c r="B363" t="s">
+        <v>14</v>
+      </c>
+      <c r="C363" t="s">
+        <v>46</v>
+      </c>
+      <c r="D363">
+        <v>7.8974290674554304</v>
+      </c>
+      <c r="E363">
+        <v>14.350249491090601</v>
+      </c>
+      <c r="F363">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364" t="s">
+        <v>46</v>
+      </c>
+      <c r="D364">
+        <v>5.2105687202612501</v>
+      </c>
+      <c r="E364">
+        <v>15.0095624327957</v>
+      </c>
+      <c r="F364">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365">
+        <v>2</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+      <c r="C365" t="s">
+        <v>46</v>
+      </c>
+      <c r="D365">
+        <v>7.8932714483525599</v>
+      </c>
+      <c r="E365">
+        <v>13.709671499050099</v>
+      </c>
+      <c r="F365">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C366" t="s">
+        <v>46</v>
+      </c>
+      <c r="D366">
+        <v>6.3438738851575902</v>
+      </c>
+      <c r="E366">
+        <v>15.9944722319202</v>
+      </c>
+      <c r="F366">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367">
+        <v>2</v>
+      </c>
+      <c r="B367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C367" t="s">
+        <v>46</v>
+      </c>
+      <c r="D367">
+        <v>7.5005579335416899</v>
+      </c>
+      <c r="E367">
+        <v>15.732425948974599</v>
+      </c>
+      <c r="F367">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368" t="s">
+        <v>14</v>
+      </c>
+      <c r="C368" t="s">
+        <v>46</v>
+      </c>
+      <c r="D368">
         <v>4.3855609207021304</v>
       </c>
-      <c r="E349">
+      <c r="E368">
         <v>15.4296625104692</v>
       </c>
-      <c r="F349">
+      <c r="F368">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F368" xr:uid="{9C519FFD-6B2B-454D-875F-1C268088827C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
